--- a/upload/feminicidio_2022.xlsx
+++ b/upload/feminicidio_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BDBCBA-AF6A-496F-95AD-1E15F009EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0191B65-E1C6-4AF8-B5DE-A3D03DB487E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6219A3C7-377C-4061-815C-DBF3A97E8806}"/>
+    <workbookView xWindow="5820" yWindow="1065" windowWidth="18000" windowHeight="9360" xr2:uid="{6219A3C7-377C-4061-815C-DBF3A97E8806}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,21 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="221">
   <si>
-    <t>MUNICÍPIO-CÓD</t>
-  </si>
-  <si>
-    <t>MUNICÍPIO DO FATO</t>
-  </si>
-  <si>
-    <t>DATA DO FATO</t>
-  </si>
-  <si>
-    <t>MÊS</t>
-  </si>
-  <si>
-    <t>ANO DO FATO</t>
-  </si>
-  <si>
     <t>RISP</t>
   </si>
   <si>
@@ -62,15 +47,9 @@
     <t>TENTADO/CONSUMADO</t>
   </si>
   <si>
-    <t>QTD DE VÍTIMAS</t>
-  </si>
-  <si>
     <t>MANHUACU</t>
   </si>
   <si>
-    <t>12º Departamento - Ipatinga</t>
-  </si>
-  <si>
     <t>3) Interior de MG</t>
   </si>
   <si>
@@ -80,9 +59,6 @@
     <t>BELO HORIZONTE</t>
   </si>
   <si>
-    <t>1º Departamento - Belo Horizonte</t>
-  </si>
-  <si>
     <t>1) Belo Horizonte</t>
   </si>
   <si>
@@ -92,27 +68,15 @@
     <t>SAO ROMAO</t>
   </si>
   <si>
-    <t>14º Departamento - Curvelo</t>
-  </si>
-  <si>
     <t>PATOS DE MINAS</t>
   </si>
   <si>
-    <t>10º Departamento - Patos de Minas</t>
-  </si>
-  <si>
     <t>CORACAO DE JESUS</t>
   </si>
   <si>
-    <t>11º Departamento - Montes Claros</t>
-  </si>
-  <si>
     <t>SAO JOSE DA VARGINHA</t>
   </si>
   <si>
-    <t>7º Departamento - Divinópolis</t>
-  </si>
-  <si>
     <t>SANTA MARGARIDA</t>
   </si>
   <si>
@@ -122,60 +86,39 @@
     <t>ESTRELA DO SUL</t>
   </si>
   <si>
-    <t>9º Departamento - Uberlândia</t>
-  </si>
-  <si>
     <t>RIBEIRAO DAS NEVES</t>
   </si>
   <si>
-    <t>2º Departamento - Contagem</t>
-  </si>
-  <si>
     <t>2) RMBH (sem BH)</t>
   </si>
   <si>
     <t>SANTOS DUMONT</t>
   </si>
   <si>
-    <t>13º Departamento - Barbacena</t>
-  </si>
-  <si>
     <t>CONTAGEM</t>
   </si>
   <si>
     <t>VARGINHA</t>
   </si>
   <si>
-    <t>6º Departamento - Lavras</t>
-  </si>
-  <si>
     <t>CONCEICAO DO PARA</t>
   </si>
   <si>
     <t>SETE LAGOAS</t>
   </si>
   <si>
-    <t>19º Departamento - Sete Lagoas</t>
-  </si>
-  <si>
     <t>BOM DESPACHO</t>
   </si>
   <si>
     <t>SABARA</t>
   </si>
   <si>
-    <t>3º Departamento - Vespasiano</t>
-  </si>
-  <si>
     <t>CARBONITA</t>
   </si>
   <si>
     <t>CATAGUASES</t>
   </si>
   <si>
-    <t>4º Departamento - Juiz de Fora</t>
-  </si>
-  <si>
     <t>PONTE NOVA</t>
   </si>
   <si>
@@ -185,9 +128,6 @@
     <t>MONTE SIAO</t>
   </si>
   <si>
-    <t>17º Departamento - Pouso Alegre</t>
-  </si>
-  <si>
     <t>SANTA LUZIA</t>
   </si>
   <si>
@@ -221,15 +161,9 @@
     <t>PARAGUACU</t>
   </si>
   <si>
-    <t>18º Departamento - Poços de Caldas</t>
-  </si>
-  <si>
     <t>URUCUIA</t>
   </si>
   <si>
-    <t>16º Departamento - Unaí</t>
-  </si>
-  <si>
     <t>BETIM</t>
   </si>
   <si>
@@ -245,9 +179,6 @@
     <t>SACRAMENTO</t>
   </si>
   <si>
-    <t>5º Departamento - Uberaba</t>
-  </si>
-  <si>
     <t>JANUARIA</t>
   </si>
   <si>
@@ -278,9 +209,6 @@
     <t>MEDINA</t>
   </si>
   <si>
-    <t>15º Departamento - Teófilo Otoni</t>
-  </si>
-  <si>
     <t>ALFENAS</t>
   </si>
   <si>
@@ -296,9 +224,6 @@
     <t>GOVERNADOR VALADARES</t>
   </si>
   <si>
-    <t>8º Departamento - Governador Valadares</t>
-  </si>
-  <si>
     <t>SAO JOAO DA LAGOA</t>
   </si>
   <si>
@@ -699,13 +624,88 @@
   </si>
   <si>
     <t>ITURAMA</t>
+  </si>
+  <si>
+    <t>MUNICIPIO_COD</t>
+  </si>
+  <si>
+    <t>MUNICIPIO_FATO</t>
+  </si>
+  <si>
+    <t>DATA_FATO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>QTDE_VITIMAS</t>
+  </si>
+  <si>
+    <t>12º RISP - Ipatinga</t>
+  </si>
+  <si>
+    <t>1º RISP - Belo Horizonte</t>
+  </si>
+  <si>
+    <t>14º RISP - Curvelo</t>
+  </si>
+  <si>
+    <t>10º RISP - Patos de Minas</t>
+  </si>
+  <si>
+    <t>11º RISP - Montes Claros</t>
+  </si>
+  <si>
+    <t>7º RISP - Divinópolis</t>
+  </si>
+  <si>
+    <t>9º RISP - Uberlândia</t>
+  </si>
+  <si>
+    <t>2º RISP - Contagem</t>
+  </si>
+  <si>
+    <t>13º RISP - Barbacena</t>
+  </si>
+  <si>
+    <t>6º RISP - Lavras</t>
+  </si>
+  <si>
+    <t>19º RISP - Sete Lagoas</t>
+  </si>
+  <si>
+    <t>3º RISP - Vespasiano</t>
+  </si>
+  <si>
+    <t>4º RISP - Juiz de Fora</t>
+  </si>
+  <si>
+    <t>17º RISP - Pouso Alegre</t>
+  </si>
+  <si>
+    <t>18º RISP - Poços de Caldas</t>
+  </si>
+  <si>
+    <t>16º RISP - Unaí</t>
+  </si>
+  <si>
+    <t>5º RISP - Uberaba</t>
+  </si>
+  <si>
+    <t>15º RISP - Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>8º RISP - Governador Valadares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,11 +715,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -731,32 +736,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -781,24 +771,24 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,38 +1108,48 @@
   <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I352"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>313940</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6">
         <v>44562</v>
@@ -1169,13 +1169,13 @@
         <v>2022</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>310620</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>44564</v>
@@ -1198,13 +1198,13 @@
         <v>2022</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>316420</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>44564</v>
@@ -1227,13 +1227,13 @@
         <v>2022</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>314800</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>44565</v>
@@ -1256,13 +1256,13 @@
         <v>2022</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>311880</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>44571</v>
@@ -1285,13 +1285,13 @@
         <v>2022</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>316310</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>44572</v>
@@ -1314,13 +1314,13 @@
         <v>2022</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>310620</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>44575</v>
@@ -1343,13 +1343,13 @@
         <v>2022</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>315790</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>44576</v>
@@ -1372,13 +1372,13 @@
         <v>2022</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>310780</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>44577</v>
@@ -1401,13 +1401,13 @@
         <v>2022</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>312480</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6">
         <v>44577</v>
@@ -1430,13 +1430,13 @@
         <v>2022</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>315460</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6">
         <v>44577</v>
@@ -1459,13 +1459,13 @@
         <v>2022</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>316070</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>44577</v>
@@ -1488,13 +1488,13 @@
         <v>2022</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>311860</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6">
         <v>44578</v>
@@ -1517,13 +1517,13 @@
         <v>2022</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>317070</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>44578</v>
@@ -1546,13 +1546,13 @@
         <v>2022</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>311760</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>44579</v>
@@ -1575,13 +1575,13 @@
         <v>2022</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>316720</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>44580</v>
@@ -1604,13 +1604,13 @@
         <v>2022</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>316720</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6">
         <v>44586</v>
@@ -1633,13 +1633,13 @@
         <v>2022</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>316720</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6">
         <v>44590</v>
@@ -1662,13 +1662,13 @@
         <v>2022</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>310740</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>44594</v>
@@ -1691,13 +1691,13 @@
         <v>2022</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>315670</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>44596</v>
@@ -1720,13 +1720,13 @@
         <v>2022</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>311350</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>44596</v>
@@ -1749,13 +1749,13 @@
         <v>2022</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>311530</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>44596</v>
@@ -1778,13 +1778,13 @@
         <v>2022</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>315210</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>44597</v>
@@ -1807,13 +1807,13 @@
         <v>2022</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>310420</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
         <v>44598</v>
@@ -1836,13 +1836,13 @@
         <v>2022</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>310620</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C26" s="6">
         <v>44600</v>
@@ -1865,13 +1865,13 @@
         <v>2022</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>314340</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6">
         <v>44600</v>
@@ -1894,13 +1894,13 @@
         <v>2022</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>315780</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6">
         <v>44602</v>
@@ -1923,13 +1923,13 @@
         <v>2022</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>317020</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6">
         <v>44602</v>
@@ -1952,13 +1952,13 @@
         <v>2022</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>312230</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6">
         <v>44604</v>
@@ -1981,13 +1981,13 @@
         <v>2022</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>310620</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C31" s="6">
         <v>44605</v>
@@ -2010,13 +2010,13 @@
         <v>2022</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>313720</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6">
         <v>44605</v>
@@ -2039,13 +2039,13 @@
         <v>2022</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>315990</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6">
         <v>44605</v>
@@ -2068,13 +2068,13 @@
         <v>2022</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>310620</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C34" s="6">
         <v>44606</v>
@@ -2097,13 +2097,13 @@
         <v>2022</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I34" s="7">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>313220</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C35" s="6">
         <v>44606</v>
@@ -2126,13 +2126,13 @@
         <v>2022</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>316250</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6">
         <v>44606</v>
@@ -2155,13 +2155,13 @@
         <v>2022</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>313760</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>44607</v>
@@ -2184,13 +2184,13 @@
         <v>2022</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>315780</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6">
         <v>44607</v>
@@ -2213,13 +2213,13 @@
         <v>2022</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I38" s="7">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>313190</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6">
         <v>44611</v>
@@ -2242,13 +2242,13 @@
         <v>2022</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>317200</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6">
         <v>44611</v>
@@ -2271,13 +2271,13 @@
         <v>2022</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>314720</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6">
         <v>44614</v>
@@ -2300,13 +2300,13 @@
         <v>2022</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -2317,7 +2317,7 @@
         <v>317052</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6">
         <v>44615</v>
@@ -2329,13 +2329,13 @@
         <v>2022</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         <v>310620</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" s="6">
         <v>44617</v>
@@ -2358,13 +2358,13 @@
         <v>2022</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>310670</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C44" s="6">
         <v>44617</v>
@@ -2387,13 +2387,13 @@
         <v>2022</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>315460</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C45" s="6">
         <v>44617</v>
@@ -2416,13 +2416,13 @@
         <v>2022</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>313980</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C46" s="6">
         <v>44618</v>
@@ -2445,13 +2445,13 @@
         <v>2022</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>313630</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6">
         <v>44618</v>
@@ -2474,13 +2474,13 @@
         <v>2022</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>313670</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6">
         <v>44618</v>
@@ -2503,13 +2503,13 @@
         <v>2022</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>315690</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C49" s="6">
         <v>44619</v>
@@ -2532,13 +2532,13 @@
         <v>2022</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>313520</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C50" s="6">
         <v>44620</v>
@@ -2561,13 +2561,13 @@
         <v>2022</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -2578,7 +2578,7 @@
         <v>311230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C51" s="6">
         <v>44621</v>
@@ -2590,13 +2590,13 @@
         <v>2022</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>317010</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C52" s="6">
         <v>44622</v>
@@ -2619,13 +2619,13 @@
         <v>2022</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>313520</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C53" s="6">
         <v>44623</v>
@@ -2648,13 +2648,13 @@
         <v>2022</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>313380</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6">
         <v>44624</v>
@@ -2677,13 +2677,13 @@
         <v>2022</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>312530</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6">
         <v>44625</v>
@@ -2706,13 +2706,13 @@
         <v>2022</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I55" s="7">
         <v>2</v>
@@ -2723,7 +2723,7 @@
         <v>311340</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6">
         <v>44627</v>
@@ -2735,13 +2735,13 @@
         <v>2022</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>310620</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C57" s="6">
         <v>44627</v>
@@ -2764,13 +2764,13 @@
         <v>2022</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>317020</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C58" s="6">
         <v>44629</v>
@@ -2793,13 +2793,13 @@
         <v>2022</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>314330</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C59" s="6">
         <v>44630</v>
@@ -2822,13 +2822,13 @@
         <v>2022</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>315670</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C60" s="6">
         <v>44631</v>
@@ -2851,13 +2851,13 @@
         <v>2022</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>310400</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C61" s="6">
         <v>44632</v>
@@ -2880,13 +2880,13 @@
         <v>2022</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>315170</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6">
         <v>44632</v>
@@ -2909,13 +2909,13 @@
         <v>2022</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>314140</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C63" s="6">
         <v>44632</v>
@@ -2938,13 +2938,13 @@
         <v>2022</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>310160</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C64" s="6">
         <v>44633</v>
@@ -2967,13 +2967,13 @@
         <v>2022</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>316930</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C65" s="6">
         <v>44633</v>
@@ -2996,13 +2996,13 @@
         <v>2022</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>313670</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C66" s="6">
         <v>44633</v>
@@ -3025,13 +3025,13 @@
         <v>2022</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I66" s="7">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>316860</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6">
         <v>44635</v>
@@ -3054,13 +3054,13 @@
         <v>2022</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>316695</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C68" s="6">
         <v>44637</v>
@@ -3083,13 +3083,13 @@
         <v>2022</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>312770</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C69" s="6">
         <v>44638</v>
@@ -3112,13 +3112,13 @@
         <v>2022</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>316225</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C70" s="6">
         <v>44638</v>
@@ -3141,13 +3141,13 @@
         <v>2022</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I70" s="7">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>311730</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6">
         <v>44638</v>
@@ -3170,13 +3170,13 @@
         <v>2022</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>316150</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C72" s="6">
         <v>44639</v>
@@ -3199,13 +3199,13 @@
         <v>2022</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I72" s="7">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>313750</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C73" s="6">
         <v>44639</v>
@@ -3228,13 +3228,13 @@
         <v>2022</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>310620</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C74" s="6">
         <v>44640</v>
@@ -3257,13 +3257,13 @@
         <v>2022</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>310620</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C75" s="6">
         <v>44641</v>
@@ -3286,13 +3286,13 @@
         <v>2022</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>310620</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C76" s="6">
         <v>44643</v>
@@ -3315,13 +3315,13 @@
         <v>2022</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I76" s="7">
         <v>1</v>
@@ -3332,7 +3332,7 @@
         <v>310270</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C77" s="6">
         <v>44643</v>
@@ -3344,13 +3344,13 @@
         <v>2022</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>311130</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C78" s="6">
         <v>44643</v>
@@ -3373,13 +3373,13 @@
         <v>2022</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I78" s="7">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>317070</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C79" s="6">
         <v>44644</v>
@@ -3402,13 +3402,13 @@
         <v>2022</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I79" s="7">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>316340</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C80" s="6">
         <v>44646</v>
@@ -3431,13 +3431,13 @@
         <v>2022</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>313960</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C81" s="6">
         <v>44646</v>
@@ -3460,13 +3460,13 @@
         <v>2022</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>310620</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C82" s="6">
         <v>44647</v>
@@ -3489,13 +3489,13 @@
         <v>2022</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I82" s="7">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>313550</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C83" s="6">
         <v>44648</v>
@@ -3518,13 +3518,13 @@
         <v>2022</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>315140</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C84" s="6">
         <v>44649</v>
@@ -3547,13 +3547,13 @@
         <v>2022</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>317010</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C85" s="6">
         <v>44654</v>
@@ -3576,13 +3576,13 @@
         <v>2022</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>316550</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C86" s="6">
         <v>44654</v>
@@ -3605,13 +3605,13 @@
         <v>2022</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>312770</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C87" s="6">
         <v>44655</v>
@@ -3634,13 +3634,13 @@
         <v>2022</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>310150</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C88" s="6">
         <v>44658</v>
@@ -3663,13 +3663,13 @@
         <v>2022</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>313620</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C89" s="6">
         <v>44658</v>
@@ -3692,13 +3692,13 @@
         <v>2022</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -3709,7 +3709,7 @@
         <v>313010</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C90" s="6">
         <v>44659</v>
@@ -3721,13 +3721,13 @@
         <v>2022</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         <v>314980</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C91" s="6">
         <v>44660</v>
@@ -3750,13 +3750,13 @@
         <v>2022</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -3767,7 +3767,7 @@
         <v>316350</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C92" s="6">
         <v>44661</v>
@@ -3779,13 +3779,13 @@
         <v>2022</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I92" s="7">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>317200</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C93" s="6">
         <v>44662</v>
@@ -3808,13 +3808,13 @@
         <v>2022</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I93" s="7">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>310170</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C94" s="6">
         <v>44663</v>
@@ -3837,13 +3837,13 @@
         <v>2022</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I94" s="7">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>315445</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C95" s="6">
         <v>44664</v>
@@ -3866,13 +3866,13 @@
         <v>2022</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I95" s="7">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>313130</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C96" s="6">
         <v>44666</v>
@@ -3895,13 +3895,13 @@
         <v>2022</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I96" s="7">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>315810</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C97" s="6">
         <v>44666</v>
@@ -3924,13 +3924,13 @@
         <v>2022</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I97" s="7">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>315250</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C98" s="6">
         <v>44667</v>
@@ -3953,13 +3953,13 @@
         <v>2022</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I98" s="7">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>314710</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C99" s="6">
         <v>44667</v>
@@ -3982,13 +3982,13 @@
         <v>2022</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I99" s="7">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>313250</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C100" s="6">
         <v>44669</v>
@@ -4011,13 +4011,13 @@
         <v>2022</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I100" s="7">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>314070</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6">
         <v>44672</v>
@@ -4040,13 +4040,13 @@
         <v>2022</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I101" s="7">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>310620</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C102" s="6">
         <v>44672</v>
@@ -4069,13 +4069,13 @@
         <v>2022</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I102" s="7">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>313130</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C103" s="6">
         <v>44673</v>
@@ -4098,13 +4098,13 @@
         <v>2022</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I103" s="7">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>315700</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C104" s="6">
         <v>44673</v>
@@ -4127,13 +4127,13 @@
         <v>2022</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I104" s="7">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>313830</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C105" s="6">
         <v>44674</v>
@@ -4156,13 +4156,13 @@
         <v>2022</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I105" s="7">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>314520</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C106" s="6">
         <v>44675</v>
@@ -4185,13 +4185,13 @@
         <v>2022</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I106" s="7">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>310620</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C107" s="6">
         <v>44675</v>
@@ -4214,13 +4214,13 @@
         <v>2022</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I107" s="7">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>317052</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C108" s="6">
         <v>44677</v>
@@ -4243,13 +4243,13 @@
         <v>2022</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I108" s="7">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>314800</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C109" s="6">
         <v>44680</v>
@@ -4272,13 +4272,13 @@
         <v>2022</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I109" s="7">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>313170</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C110" s="6">
         <v>44681</v>
@@ -4301,13 +4301,13 @@
         <v>2022</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I110" s="7">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>315895</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C111" s="6">
         <v>44681</v>
@@ -4330,13 +4330,13 @@
         <v>2022</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I111" s="7">
         <v>1</v>
@@ -4347,7 +4347,7 @@
         <v>314625</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C112" s="6">
         <v>44682</v>
@@ -4359,13 +4359,13 @@
         <v>2022</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I112" s="7">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>315250</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C113" s="6">
         <v>44682</v>
@@ -4388,13 +4388,13 @@
         <v>2022</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I113" s="7">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>310670</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C114" s="6">
         <v>44684</v>
@@ -4417,13 +4417,13 @@
         <v>2022</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I114" s="7">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>315460</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C115" s="6">
         <v>44684</v>
@@ -4446,13 +4446,13 @@
         <v>2022</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I115" s="7">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>312840</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C116" s="6">
         <v>44685</v>
@@ -4475,13 +4475,13 @@
         <v>2022</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I116" s="7">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>313010</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C117" s="6">
         <v>44685</v>
@@ -4504,13 +4504,13 @@
         <v>2022</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I117" s="7">
         <v>1</v>
@@ -4521,7 +4521,7 @@
         <v>311860</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C118" s="6">
         <v>44685</v>
@@ -4533,13 +4533,13 @@
         <v>2022</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>313840</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C119" s="6">
         <v>44685</v>
@@ -4562,13 +4562,13 @@
         <v>2022</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>315280</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C120" s="6">
         <v>44685</v>
@@ -4591,13 +4591,13 @@
         <v>2022</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>310620</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C121" s="6">
         <v>44688</v>
@@ -4620,13 +4620,13 @@
         <v>2022</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I121" s="7">
         <v>1</v>
@@ -4637,7 +4637,7 @@
         <v>310285</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C122" s="6">
         <v>44689</v>
@@ -4649,13 +4649,13 @@
         <v>2022</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I122" s="7">
         <v>1</v>
@@ -4666,7 +4666,7 @@
         <v>317020</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C123" s="6">
         <v>44690</v>
@@ -4678,13 +4678,13 @@
         <v>2022</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I123" s="7">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>312980</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C124" s="6">
         <v>44692</v>
@@ -4707,13 +4707,13 @@
         <v>2022</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I124" s="7">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>312770</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C125" s="6">
         <v>44694</v>
@@ -4736,13 +4736,13 @@
         <v>2022</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I125" s="7">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>314710</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C126" s="6">
         <v>44694</v>
@@ -4765,13 +4765,13 @@
         <v>2022</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I126" s="7">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>315490</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C127" s="6">
         <v>44695</v>
@@ -4794,13 +4794,13 @@
         <v>2022</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I127" s="7">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>316990</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C128" s="6">
         <v>44695</v>
@@ -4823,13 +4823,13 @@
         <v>2022</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I128" s="7">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>315200</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C129" s="6">
         <v>44695</v>
@@ -4852,13 +4852,13 @@
         <v>2022</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I129" s="7">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>312090</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C130" s="6">
         <v>44696</v>
@@ -4881,13 +4881,13 @@
         <v>2022</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I130" s="7">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>317020</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C131" s="6">
         <v>44697</v>
@@ -4910,13 +4910,13 @@
         <v>2022</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I131" s="7">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>310620</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C132" s="6">
         <v>44698</v>
@@ -4939,13 +4939,13 @@
         <v>2022</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I132" s="7">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>316260</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C133" s="6">
         <v>44702</v>
@@ -4968,13 +4968,13 @@
         <v>2022</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I133" s="7">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>315460</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C134" s="6">
         <v>44703</v>
@@ -4997,13 +4997,13 @@
         <v>2022</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I134" s="7">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>310620</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C135" s="6">
         <v>44704</v>
@@ -5026,13 +5026,13 @@
         <v>2022</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I135" s="7">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>317107</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C136" s="6">
         <v>44704</v>
@@ -5055,13 +5055,13 @@
         <v>2022</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>313670</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C137" s="6">
         <v>44706</v>
@@ -5084,13 +5084,13 @@
         <v>2022</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>310270</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C138" s="6">
         <v>44706</v>
@@ -5113,13 +5113,13 @@
         <v>2022</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I138" s="7">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>311230</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C139" s="6">
         <v>44706</v>
@@ -5142,13 +5142,13 @@
         <v>2022</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>312610</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C140" s="6">
         <v>44707</v>
@@ -5171,13 +5171,13 @@
         <v>2022</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I140" s="7">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>316110</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C141" s="6">
         <v>44708</v>
@@ -5200,13 +5200,13 @@
         <v>2022</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I141" s="7">
         <v>1</v>
@@ -5217,7 +5217,7 @@
         <v>311230</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C142" s="6">
         <v>44708</v>
@@ -5229,13 +5229,13 @@
         <v>2022</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I142" s="7">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>316070</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C143" s="6">
         <v>44708</v>
@@ -5258,13 +5258,13 @@
         <v>2022</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I143" s="7">
         <v>1</v>
@@ -5275,7 +5275,7 @@
         <v>313400</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C144" s="6">
         <v>44709</v>
@@ -5287,13 +5287,13 @@
         <v>2022</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I144" s="7">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>316860</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C145" s="6">
         <v>44709</v>
@@ -5316,13 +5316,13 @@
         <v>2022</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>311740</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C146" s="6">
         <v>44710</v>
@@ -5345,13 +5345,13 @@
         <v>2022</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>315690</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C147" s="6">
         <v>44710</v>
@@ -5374,13 +5374,13 @@
         <v>2022</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I147" s="7">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>312230</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C148" s="6">
         <v>44711</v>
@@ -5403,13 +5403,13 @@
         <v>2022</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I148" s="7">
         <v>2</v>
@@ -5420,7 +5420,7 @@
         <v>317070</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C149" s="6">
         <v>44711</v>
@@ -5432,13 +5432,13 @@
         <v>2022</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I149" s="7">
         <v>1</v>
@@ -5449,7 +5449,7 @@
         <v>315180</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C150" s="6">
         <v>44712</v>
@@ -5461,13 +5461,13 @@
         <v>2022</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>311860</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C151" s="6">
         <v>44713</v>
@@ -5490,13 +5490,13 @@
         <v>2022</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
@@ -5507,7 +5507,7 @@
         <v>316860</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C152" s="6">
         <v>44715</v>
@@ -5519,13 +5519,13 @@
         <v>2022</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I152" s="7">
         <v>1</v>
@@ -5536,7 +5536,7 @@
         <v>315460</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C153" s="6">
         <v>44716</v>
@@ -5548,13 +5548,13 @@
         <v>2022</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I153" s="7">
         <v>1</v>
@@ -5565,7 +5565,7 @@
         <v>316860</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C154" s="6">
         <v>44716</v>
@@ -5577,13 +5577,13 @@
         <v>2022</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I154" s="7">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>310620</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C155" s="6">
         <v>44717</v>
@@ -5606,13 +5606,13 @@
         <v>2022</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I155" s="7">
         <v>1</v>
@@ -5623,7 +5623,7 @@
         <v>310090</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C156" s="6">
         <v>44719</v>
@@ -5635,13 +5635,13 @@
         <v>2022</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I156" s="7">
         <v>1</v>
@@ -5652,7 +5652,7 @@
         <v>310620</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C157" s="6">
         <v>44720</v>
@@ -5664,13 +5664,13 @@
         <v>2022</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I157" s="7">
         <v>1</v>
@@ -5681,7 +5681,7 @@
         <v>314590</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C158" s="6">
         <v>44722</v>
@@ -5693,13 +5693,13 @@
         <v>2022</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>314520</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C159" s="6">
         <v>44730</v>
@@ -5722,13 +5722,13 @@
         <v>2022</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I159" s="7">
         <v>1</v>
@@ -5739,7 +5739,7 @@
         <v>310620</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C160" s="6">
         <v>44731</v>
@@ -5751,13 +5751,13 @@
         <v>2022</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I160" s="7">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>312490</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C161" s="6">
         <v>44731</v>
@@ -5780,13 +5780,13 @@
         <v>2022</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I161" s="7">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>317120</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C162" s="6">
         <v>44731</v>
@@ -5809,13 +5809,13 @@
         <v>2022</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I162" s="7">
         <v>1</v>
@@ -5826,7 +5826,7 @@
         <v>316990</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C163" s="6">
         <v>44732</v>
@@ -5838,13 +5838,13 @@
         <v>2022</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I163" s="7">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         <v>316292</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C164" s="6">
         <v>44735</v>
@@ -5867,13 +5867,13 @@
         <v>2022</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I164" s="7">
         <v>1</v>
@@ -5884,7 +5884,7 @@
         <v>316210</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C165" s="6">
         <v>44736</v>
@@ -5896,13 +5896,13 @@
         <v>2022</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I165" s="7">
         <v>1</v>
@@ -5913,7 +5913,7 @@
         <v>315670</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C166" s="6">
         <v>44736</v>
@@ -5925,13 +5925,13 @@
         <v>2022</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I166" s="7">
         <v>1</v>
@@ -5942,7 +5942,7 @@
         <v>312880</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C167" s="6">
         <v>44741</v>
@@ -5954,13 +5954,13 @@
         <v>2022</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I167" s="7">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>311420</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C168" s="6">
         <v>44742</v>
@@ -5983,13 +5983,13 @@
         <v>2022</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I168" s="7">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>313650</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C169" s="6">
         <v>44742</v>
@@ -6012,13 +6012,13 @@
         <v>2022</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I169" s="7">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>311880</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C170" s="6">
         <v>44744</v>
@@ -6041,13 +6041,13 @@
         <v>2022</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I170" s="7">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>315100</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C171" s="6">
         <v>44746</v>
@@ -6070,13 +6070,13 @@
         <v>2022</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I171" s="7">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>311330</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C172" s="6">
         <v>44749</v>
@@ -6099,13 +6099,13 @@
         <v>2022</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I172" s="7">
         <v>1</v>
@@ -6116,7 +6116,7 @@
         <v>315350</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C173" s="6">
         <v>44751</v>
@@ -6128,13 +6128,13 @@
         <v>2022</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I173" s="7">
         <v>1</v>
@@ -6145,7 +6145,7 @@
         <v>310620</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C174" s="6">
         <v>44752</v>
@@ -6157,13 +6157,13 @@
         <v>2022</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I174" s="7">
         <v>1</v>
@@ -6174,7 +6174,7 @@
         <v>317020</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C175" s="6">
         <v>44753</v>
@@ -6186,13 +6186,13 @@
         <v>2022</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I175" s="7">
         <v>1</v>
@@ -6203,7 +6203,7 @@
         <v>310350</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C176" s="6">
         <v>44753</v>
@@ -6215,13 +6215,13 @@
         <v>2022</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>310900</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C177" s="6">
         <v>44754</v>
@@ -6244,13 +6244,13 @@
         <v>2022</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I177" s="7">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>317020</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C178" s="6">
         <v>44754</v>
@@ -6273,13 +6273,13 @@
         <v>2022</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I178" s="7">
         <v>1</v>
@@ -6290,7 +6290,7 @@
         <v>313170</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C179" s="6">
         <v>44755</v>
@@ -6302,13 +6302,13 @@
         <v>2022</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I179" s="7">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         <v>315210</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C180" s="6">
         <v>44757</v>
@@ -6331,13 +6331,13 @@
         <v>2022</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>310670</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C181" s="6">
         <v>44759</v>
@@ -6360,13 +6360,13 @@
         <v>2022</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
@@ -6377,7 +6377,7 @@
         <v>316150</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C182" s="6">
         <v>44759</v>
@@ -6389,13 +6389,13 @@
         <v>2022</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I182" s="7">
         <v>1</v>
@@ -6406,7 +6406,7 @@
         <v>314810</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C183" s="6">
         <v>44761</v>
@@ -6418,13 +6418,13 @@
         <v>2022</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I183" s="7">
         <v>1</v>
@@ -6435,7 +6435,7 @@
         <v>315180</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C184" s="6">
         <v>44763</v>
@@ -6447,13 +6447,13 @@
         <v>2022</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I184" s="7">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>312230</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C185" s="6">
         <v>44764</v>
@@ -6476,13 +6476,13 @@
         <v>2022</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I185" s="7">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>314600</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C186" s="6">
         <v>44764</v>
@@ -6505,13 +6505,13 @@
         <v>2022</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I186" s="7">
         <v>1</v>
@@ -6522,7 +6522,7 @@
         <v>314980</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C187" s="6">
         <v>44764</v>
@@ -6534,13 +6534,13 @@
         <v>2022</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I187" s="7">
         <v>1</v>
@@ -6551,7 +6551,7 @@
         <v>317150</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C188" s="6">
         <v>44764</v>
@@ -6563,13 +6563,13 @@
         <v>2022</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I188" s="7">
         <v>1</v>
@@ -6580,7 +6580,7 @@
         <v>312610</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C189" s="6">
         <v>44765</v>
@@ -6592,13 +6592,13 @@
         <v>2022</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I189" s="7">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>310620</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C190" s="6">
         <v>44765</v>
@@ -6621,13 +6621,13 @@
         <v>2022</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I190" s="7">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>314330</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C191" s="6">
         <v>44766</v>
@@ -6650,13 +6650,13 @@
         <v>2022</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I191" s="7">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>311120</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C192" s="6">
         <v>44766</v>
@@ -6679,13 +6679,13 @@
         <v>2022</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I192" s="7">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>310620</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C193" s="6">
         <v>44770</v>
@@ -6708,13 +6708,13 @@
         <v>2022</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I193" s="7">
         <v>2</v>
@@ -6725,7 +6725,7 @@
         <v>313010</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C194" s="6">
         <v>44771</v>
@@ -6737,13 +6737,13 @@
         <v>2022</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I194" s="7">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>313230</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C195" s="6">
         <v>44771</v>
@@ -6766,13 +6766,13 @@
         <v>2022</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I195" s="7">
         <v>1</v>
@@ -6783,7 +6783,7 @@
         <v>313240</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C196" s="6">
         <v>44772</v>
@@ -6795,13 +6795,13 @@
         <v>2022</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I196" s="7">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>312410</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C197" s="6">
         <v>44772</v>
@@ -6824,13 +6824,13 @@
         <v>2022</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
@@ -6841,7 +6841,7 @@
         <v>310375</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C198" s="6">
         <v>44773</v>
@@ -6853,13 +6853,13 @@
         <v>2022</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
@@ -6870,7 +6870,7 @@
         <v>313050</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C199" s="6">
         <v>44775</v>
@@ -6882,13 +6882,13 @@
         <v>2022</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
@@ -6899,7 +6899,7 @@
         <v>313753</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C200" s="6">
         <v>44775</v>
@@ -6911,13 +6911,13 @@
         <v>2022</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
@@ -6928,7 +6928,7 @@
         <v>310620</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C201" s="6">
         <v>44777</v>
@@ -6940,13 +6940,13 @@
         <v>2022</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I201" s="7">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         <v>313940</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C202" s="6">
         <v>44778</v>
@@ -6969,13 +6969,13 @@
         <v>2022</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I202" s="7">
         <v>1</v>
@@ -6986,7 +6986,7 @@
         <v>315053</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C203" s="6">
         <v>44779</v>
@@ -6998,13 +6998,13 @@
         <v>2022</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I203" s="7">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>310400</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C204" s="6">
         <v>44779</v>
@@ -7027,13 +7027,13 @@
         <v>2022</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I204" s="7">
         <v>1</v>
@@ -7044,7 +7044,7 @@
         <v>313980</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C205" s="6">
         <v>44779</v>
@@ -7056,13 +7056,13 @@
         <v>2022</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I205" s="7">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>313630</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C206" s="6">
         <v>44780</v>
@@ -7085,13 +7085,13 @@
         <v>2022</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -7102,7 +7102,7 @@
         <v>314800</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C207" s="6">
         <v>44780</v>
@@ -7114,13 +7114,13 @@
         <v>2022</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I207" s="7">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>317010</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C208" s="6">
         <v>44780</v>
@@ -7143,13 +7143,13 @@
         <v>2022</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I208" s="7">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>311860</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C209" s="6">
         <v>44781</v>
@@ -7172,13 +7172,13 @@
         <v>2022</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I209" s="7">
         <v>1</v>
@@ -7189,7 +7189,7 @@
         <v>310620</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C210" s="6">
         <v>44782</v>
@@ -7201,13 +7201,13 @@
         <v>2022</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I210" s="7">
         <v>1</v>
@@ -7218,7 +7218,7 @@
         <v>310620</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C211" s="6">
         <v>44784</v>
@@ -7230,13 +7230,13 @@
         <v>2022</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I211" s="7">
         <v>2</v>
@@ -7247,7 +7247,7 @@
         <v>312360</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C212" s="6">
         <v>44784</v>
@@ -7259,13 +7259,13 @@
         <v>2022</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I212" s="7">
         <v>1</v>
@@ -7276,7 +7276,7 @@
         <v>316850</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C213" s="6">
         <v>44784</v>
@@ -7288,13 +7288,13 @@
         <v>2022</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I213" s="7">
         <v>1</v>
@@ -7305,7 +7305,7 @@
         <v>311860</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C214" s="6">
         <v>44786</v>
@@ -7317,13 +7317,13 @@
         <v>2022</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I214" s="7">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>310620</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C215" s="6">
         <v>44788</v>
@@ -7346,13 +7346,13 @@
         <v>2022</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I215" s="7">
         <v>1</v>
@@ -7363,7 +7363,7 @@
         <v>311115</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C216" s="6">
         <v>44788</v>
@@ -7375,13 +7375,13 @@
         <v>2022</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I216" s="7">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>314710</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C217" s="6">
         <v>44788</v>
@@ -7404,13 +7404,13 @@
         <v>2022</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I217" s="7">
         <v>1</v>
@@ -7421,7 +7421,7 @@
         <v>313130</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C218" s="6">
         <v>44791</v>
@@ -7433,13 +7433,13 @@
         <v>2022</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I218" s="7">
         <v>1</v>
@@ -7450,7 +7450,7 @@
         <v>310620</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C219" s="6">
         <v>44792</v>
@@ -7462,13 +7462,13 @@
         <v>2022</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I219" s="7">
         <v>1</v>
@@ -7479,7 +7479,7 @@
         <v>313470</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C220" s="6">
         <v>44792</v>
@@ -7491,13 +7491,13 @@
         <v>2022</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I220" s="7">
         <v>1</v>
@@ -7508,7 +7508,7 @@
         <v>311090</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C221" s="6">
         <v>44793</v>
@@ -7520,13 +7520,13 @@
         <v>2022</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I221" s="7">
         <v>1</v>
@@ -7537,7 +7537,7 @@
         <v>310530</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C222" s="6">
         <v>44794</v>
@@ -7549,13 +7549,13 @@
         <v>2022</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I222" s="7">
         <v>2</v>
@@ -7566,7 +7566,7 @@
         <v>314310</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C223" s="6">
         <v>44796</v>
@@ -7578,13 +7578,13 @@
         <v>2022</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I223" s="7">
         <v>1</v>
@@ -7595,7 +7595,7 @@
         <v>315460</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C224" s="6">
         <v>44798</v>
@@ -7607,13 +7607,13 @@
         <v>2022</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I224" s="7">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>313670</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C225" s="6">
         <v>44799</v>
@@ -7636,13 +7636,13 @@
         <v>2022</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I225" s="7">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>310620</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C226" s="6">
         <v>44802</v>
@@ -7665,13 +7665,13 @@
         <v>2022</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I226" s="7">
         <v>1</v>
@@ -7682,7 +7682,7 @@
         <v>310670</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C227" s="6">
         <v>44802</v>
@@ -7694,13 +7694,13 @@
         <v>2022</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I227" s="7">
         <v>1</v>
@@ -7711,7 +7711,7 @@
         <v>312770</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C228" s="6">
         <v>44802</v>
@@ -7723,13 +7723,13 @@
         <v>2022</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I228" s="7">
         <v>1</v>
@@ -7740,7 +7740,7 @@
         <v>313650</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C229" s="6">
         <v>44804</v>
@@ -7752,13 +7752,13 @@
         <v>2022</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I229" s="7">
         <v>1</v>
@@ -7769,7 +7769,7 @@
         <v>312590</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C230" s="6">
         <v>44804</v>
@@ -7781,13 +7781,13 @@
         <v>2022</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I230" s="7">
         <v>1</v>
@@ -7798,7 +7798,7 @@
         <v>310340</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C231" s="6">
         <v>44806</v>
@@ -7810,13 +7810,13 @@
         <v>2022</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I231" s="7">
         <v>1</v>
@@ -7827,7 +7827,7 @@
         <v>310160</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C232" s="6">
         <v>44807</v>
@@ -7839,13 +7839,13 @@
         <v>2022</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I232" s="7">
         <v>1</v>
@@ -7856,7 +7856,7 @@
         <v>313670</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C233" s="6">
         <v>44807</v>
@@ -7868,13 +7868,13 @@
         <v>2022</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I233" s="7">
         <v>1</v>
@@ -7885,7 +7885,7 @@
         <v>314970</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C234" s="6">
         <v>44807</v>
@@ -7897,13 +7897,13 @@
         <v>2022</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I234" s="7">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>315460</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C235" s="6">
         <v>44809</v>
@@ -7926,13 +7926,13 @@
         <v>2022</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I235" s="7">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>315460</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C236" s="6">
         <v>44810</v>
@@ -7955,13 +7955,13 @@
         <v>2022</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I236" s="7">
         <v>1</v>
@@ -7972,7 +7972,7 @@
         <v>316450</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C237" s="6">
         <v>44810</v>
@@ -7984,13 +7984,13 @@
         <v>2022</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I237" s="7">
         <v>1</v>
@@ -8001,7 +8001,7 @@
         <v>317005</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C238" s="6">
         <v>44811</v>
@@ -8013,13 +8013,13 @@
         <v>2022</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>316630</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C239" s="6">
         <v>44815</v>
@@ -8042,13 +8042,13 @@
         <v>2022</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I239" s="7">
         <v>1</v>
@@ -8059,7 +8059,7 @@
         <v>313652</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C240" s="6">
         <v>44818</v>
@@ -8071,13 +8071,13 @@
         <v>2022</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>310670</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C241" s="6">
         <v>44818</v>
@@ -8100,13 +8100,13 @@
         <v>2022</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I241" s="7">
         <v>1</v>
@@ -8117,7 +8117,7 @@
         <v>314480</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C242" s="6">
         <v>44819</v>
@@ -8129,13 +8129,13 @@
         <v>2022</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I242" s="7">
         <v>1</v>
@@ -8146,7 +8146,7 @@
         <v>310810</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C243" s="6">
         <v>44822</v>
@@ -8158,13 +8158,13 @@
         <v>2022</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I243" s="7">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>310270</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C244" s="6">
         <v>44822</v>
@@ -8187,13 +8187,13 @@
         <v>2022</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I244" s="7">
         <v>1</v>
@@ -8204,7 +8204,7 @@
         <v>310160</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C245" s="6">
         <v>44823</v>
@@ -8216,13 +8216,13 @@
         <v>2022</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I245" s="7">
         <v>1</v>
@@ -8233,7 +8233,7 @@
         <v>312770</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C246" s="6">
         <v>44825</v>
@@ -8245,13 +8245,13 @@
         <v>2022</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I246" s="7">
         <v>1</v>
@@ -8262,7 +8262,7 @@
         <v>314880</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C247" s="6">
         <v>44827</v>
@@ -8274,13 +8274,13 @@
         <v>2022</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I247" s="7">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>310620</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C248" s="6">
         <v>44828</v>
@@ -8303,13 +8303,13 @@
         <v>2022</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I248" s="7">
         <v>1</v>
@@ -8320,7 +8320,7 @@
         <v>313460</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C249" s="6">
         <v>44828</v>
@@ -8332,13 +8332,13 @@
         <v>2022</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I249" s="7">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>317020</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C250" s="6">
         <v>44829</v>
@@ -8361,13 +8361,13 @@
         <v>2022</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I250" s="7">
         <v>1</v>
@@ -8378,7 +8378,7 @@
         <v>310340</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C251" s="6">
         <v>44831</v>
@@ -8390,13 +8390,13 @@
         <v>2022</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I251" s="7">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>314000</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C252" s="6">
         <v>44831</v>
@@ -8419,13 +8419,13 @@
         <v>2022</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I252" s="7">
         <v>1</v>
@@ -8436,7 +8436,7 @@
         <v>313170</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C253" s="6">
         <v>44832</v>
@@ -8448,13 +8448,13 @@
         <v>2022</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I253" s="7">
         <v>1</v>
@@ -8465,7 +8465,7 @@
         <v>313700</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C254" s="6">
         <v>44832</v>
@@ -8477,13 +8477,13 @@
         <v>2022</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I254" s="7">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>315250</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C255" s="6">
         <v>44832</v>
@@ -8506,13 +8506,13 @@
         <v>2022</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I255" s="7">
         <v>1</v>
@@ -8523,7 +8523,7 @@
         <v>310260</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C256" s="6">
         <v>44833</v>
@@ -8535,13 +8535,13 @@
         <v>2022</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I256" s="7">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>314520</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C257" s="6">
         <v>44834</v>
@@ -8564,13 +8564,13 @@
         <v>2022</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I257" s="7">
         <v>1</v>
@@ -8581,7 +8581,7 @@
         <v>310620</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C258" s="6">
         <v>44835</v>
@@ -8593,13 +8593,13 @@
         <v>2022</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I258" s="7">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>313940</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C259" s="6">
         <v>44835</v>
@@ -8622,13 +8622,13 @@
         <v>2022</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I259" s="7">
         <v>1</v>
@@ -8639,7 +8639,7 @@
         <v>314790</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C260" s="6">
         <v>44836</v>
@@ -8651,13 +8651,13 @@
         <v>2022</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I260" s="7">
         <v>1</v>
@@ -8668,7 +8668,7 @@
         <v>310620</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C261" s="6">
         <v>44837</v>
@@ -8680,13 +8680,13 @@
         <v>2022</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I261" s="7">
         <v>1</v>
@@ -8697,7 +8697,7 @@
         <v>316400</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C262" s="6">
         <v>44837</v>
@@ -8709,13 +8709,13 @@
         <v>2022</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I262" s="7">
         <v>1</v>
@@ -8726,7 +8726,7 @@
         <v>316900</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C263" s="6">
         <v>44838</v>
@@ -8738,13 +8738,13 @@
         <v>2022</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I263" s="7">
         <v>1</v>
@@ -8755,7 +8755,7 @@
         <v>310670</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C264" s="6">
         <v>44839</v>
@@ -8767,13 +8767,13 @@
         <v>2022</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I264" s="7">
         <v>1</v>
@@ -8784,7 +8784,7 @@
         <v>311860</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C265" s="6">
         <v>44841</v>
@@ -8796,13 +8796,13 @@
         <v>2022</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I265" s="7">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>311615</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C266" s="6">
         <v>44842</v>
@@ -8825,13 +8825,13 @@
         <v>2022</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I266" s="7">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>314700</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C267" s="6">
         <v>44842</v>
@@ -8854,13 +8854,13 @@
         <v>2022</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I267" s="7">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>311340</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C268" s="6">
         <v>44842</v>
@@ -8883,13 +8883,13 @@
         <v>2022</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I268" s="7">
         <v>1</v>
@@ -8900,7 +8900,7 @@
         <v>312800</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C269" s="6">
         <v>44843</v>
@@ -8912,13 +8912,13 @@
         <v>2022</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I269" s="7">
         <v>1</v>
@@ -8929,7 +8929,7 @@
         <v>312630</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C270" s="6">
         <v>44844</v>
@@ -8941,13 +8941,13 @@
         <v>2022</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I270" s="7">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>317040</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C271" s="6">
         <v>44845</v>
@@ -8970,13 +8970,13 @@
         <v>2022</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I271" s="7">
         <v>1</v>
@@ -8987,7 +8987,7 @@
         <v>310620</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C272" s="6">
         <v>44846</v>
@@ -8999,13 +8999,13 @@
         <v>2022</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I272" s="7">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>311950</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C273" s="6">
         <v>44847</v>
@@ -9028,13 +9028,13 @@
         <v>2022</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I273" s="7">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         <v>313580</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C274" s="6">
         <v>44848</v>
@@ -9057,13 +9057,13 @@
         <v>2022</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I274" s="7">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>316210</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C275" s="6">
         <v>44849</v>
@@ -9086,13 +9086,13 @@
         <v>2022</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I275" s="7">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>314800</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C276" s="6">
         <v>44849</v>
@@ -9115,13 +9115,13 @@
         <v>2022</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I276" s="7">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>315460</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C277" s="6">
         <v>44850</v>
@@ -9144,13 +9144,13 @@
         <v>2022</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I277" s="7">
         <v>1</v>
@@ -9161,7 +9161,7 @@
         <v>310670</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C278" s="6">
         <v>44850</v>
@@ -9173,13 +9173,13 @@
         <v>2022</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I278" s="7">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>313670</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C279" s="6">
         <v>44851</v>
@@ -9202,13 +9202,13 @@
         <v>2022</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I279" s="7">
         <v>1</v>
@@ -9219,7 +9219,7 @@
         <v>315780</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C280" s="6">
         <v>44851</v>
@@ -9231,13 +9231,13 @@
         <v>2022</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I280" s="7">
         <v>1</v>
@@ -9248,7 +9248,7 @@
         <v>312980</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C281" s="6">
         <v>44853</v>
@@ -9260,13 +9260,13 @@
         <v>2022</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I281" s="7">
         <v>1</v>
@@ -9277,7 +9277,7 @@
         <v>310620</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C282" s="6">
         <v>44856</v>
@@ -9289,13 +9289,13 @@
         <v>2022</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I282" s="7">
         <v>1</v>
@@ -9306,7 +9306,7 @@
         <v>311860</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C283" s="6">
         <v>44857</v>
@@ -9318,13 +9318,13 @@
         <v>2022</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I283" s="7">
         <v>2</v>
@@ -9335,7 +9335,7 @@
         <v>315780</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C284" s="6">
         <v>44857</v>
@@ -9347,13 +9347,13 @@
         <v>2022</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I284" s="7">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>311860</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C285" s="6">
         <v>44859</v>
@@ -9376,13 +9376,13 @@
         <v>2022</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I285" s="7">
         <v>1</v>
@@ -9393,7 +9393,7 @@
         <v>313510</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C286" s="6">
         <v>44860</v>
@@ -9405,13 +9405,13 @@
         <v>2022</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I286" s="7">
         <v>1</v>
@@ -9422,7 +9422,7 @@
         <v>316990</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C287" s="6">
         <v>44861</v>
@@ -9434,13 +9434,13 @@
         <v>2022</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I287" s="7">
         <v>1</v>
@@ -9451,7 +9451,7 @@
         <v>311000</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C288" s="6">
         <v>44863</v>
@@ -9463,13 +9463,13 @@
         <v>2022</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I288" s="7">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>311000</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C289" s="6">
         <v>44864</v>
@@ -9492,13 +9492,13 @@
         <v>2022</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I289" s="7">
         <v>1</v>
@@ -9509,7 +9509,7 @@
         <v>314300</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C290" s="6">
         <v>44864</v>
@@ -9521,13 +9521,13 @@
         <v>2022</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I290" s="7">
         <v>1</v>
@@ -9538,7 +9538,7 @@
         <v>316555</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C291" s="6">
         <v>44864</v>
@@ -9550,13 +9550,13 @@
         <v>2022</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I291" s="7">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>311800</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C292" s="6">
         <v>44866</v>
@@ -9579,13 +9579,13 @@
         <v>2022</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I292" s="7">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>312430</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C293" s="6">
         <v>44866</v>
@@ -9608,13 +9608,13 @@
         <v>2022</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I293" s="7">
         <v>1</v>
@@ -9625,7 +9625,7 @@
         <v>316890</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C294" s="6">
         <v>44866</v>
@@ -9637,13 +9637,13 @@
         <v>2022</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I294" s="7">
         <v>1</v>
@@ -9654,7 +9654,7 @@
         <v>316370</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C295" s="6">
         <v>44870</v>
@@ -9666,13 +9666,13 @@
         <v>2022</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I295" s="7">
         <v>2</v>
@@ -9683,7 +9683,7 @@
         <v>313950</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C296" s="6">
         <v>44873</v>
@@ -9695,13 +9695,13 @@
         <v>2022</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I296" s="7">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>310730</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C297" s="6">
         <v>44873</v>
@@ -9724,13 +9724,13 @@
         <v>2022</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I297" s="7">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>315460</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C298" s="6">
         <v>44874</v>
@@ -9753,13 +9753,13 @@
         <v>2022</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I298" s="7">
         <v>1</v>
@@ -9770,7 +9770,7 @@
         <v>312800</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C299" s="6">
         <v>44874</v>
@@ -9782,13 +9782,13 @@
         <v>2022</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I299" s="7">
         <v>1</v>
@@ -9799,7 +9799,7 @@
         <v>310855</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C300" s="6">
         <v>44875</v>
@@ -9811,13 +9811,13 @@
         <v>2022</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I300" s="7">
         <v>1</v>
@@ -9828,7 +9828,7 @@
         <v>311430</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C301" s="6">
         <v>44877</v>
@@ -9840,13 +9840,13 @@
         <v>2022</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I301" s="7">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>314800</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C302" s="6">
         <v>44877</v>
@@ -9869,13 +9869,13 @@
         <v>2022</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I302" s="7">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>310620</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C303" s="6">
         <v>44878</v>
@@ -9898,13 +9898,13 @@
         <v>2022</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I303" s="7">
         <v>1</v>
@@ -9915,7 +9915,7 @@
         <v>314435</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C304" s="6">
         <v>44878</v>
@@ -9927,13 +9927,13 @@
         <v>2022</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I304" s="7">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>316553</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C305" s="6">
         <v>44878</v>
@@ -9956,13 +9956,13 @@
         <v>2022</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I305" s="7">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>310920</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C306" s="6">
         <v>44879</v>
@@ -9985,13 +9985,13 @@
         <v>2022</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I306" s="7">
         <v>1</v>
@@ -10002,7 +10002,7 @@
         <v>315380</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C307" s="6">
         <v>44879</v>
@@ -10014,13 +10014,13 @@
         <v>2022</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I307" s="7">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>315250</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C308" s="6">
         <v>44879</v>
@@ -10043,13 +10043,13 @@
         <v>2022</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I308" s="7">
         <v>1</v>
@@ -10060,7 +10060,7 @@
         <v>315895</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C309" s="6">
         <v>44880</v>
@@ -10072,13 +10072,13 @@
         <v>2022</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I309" s="7">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>312710</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C310" s="6">
         <v>44880</v>
@@ -10101,13 +10101,13 @@
         <v>2022</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I310" s="7">
         <v>1</v>
@@ -10118,7 +10118,7 @@
         <v>315727</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C311" s="6">
         <v>44881</v>
@@ -10130,13 +10130,13 @@
         <v>2022</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I311" s="7">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>317075</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C312" s="6">
         <v>44881</v>
@@ -10159,13 +10159,13 @@
         <v>2022</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I312" s="7">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>314800</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C313" s="6">
         <v>44882</v>
@@ -10188,13 +10188,13 @@
         <v>2022</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I313" s="7">
         <v>1</v>
@@ -10205,7 +10205,7 @@
         <v>316470</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C314" s="6">
         <v>44883</v>
@@ -10217,13 +10217,13 @@
         <v>2022</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I314" s="7">
         <v>1</v>
@@ -10234,7 +10234,7 @@
         <v>313720</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C315" s="6">
         <v>44884</v>
@@ -10246,13 +10246,13 @@
         <v>2022</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I315" s="7">
         <v>1</v>
@@ -10263,7 +10263,7 @@
         <v>312410</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C316" s="6">
         <v>44885</v>
@@ -10275,13 +10275,13 @@
         <v>2022</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I316" s="7">
         <v>1</v>
@@ -10292,7 +10292,7 @@
         <v>313460</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C317" s="6">
         <v>44889</v>
@@ -10304,13 +10304,13 @@
         <v>2022</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I317" s="7">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>316210</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C318" s="6">
         <v>44891</v>
@@ -10333,13 +10333,13 @@
         <v>2022</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I318" s="7">
         <v>1</v>
@@ -10350,7 +10350,7 @@
         <v>313670</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C319" s="6">
         <v>44893</v>
@@ -10362,13 +10362,13 @@
         <v>2022</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I319" s="7">
         <v>2</v>
@@ -10379,7 +10379,7 @@
         <v>311420</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C320" s="6">
         <v>44893</v>
@@ -10391,13 +10391,13 @@
         <v>2022</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I320" s="7">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>317020</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C321" s="6">
         <v>44895</v>
@@ -10420,13 +10420,13 @@
         <v>2022</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I321" s="7">
         <v>1</v>
@@ -10437,7 +10437,7 @@
         <v>310940</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C322" s="6">
         <v>44897</v>
@@ -10449,13 +10449,13 @@
         <v>2022</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I322" s="7">
         <v>1</v>
@@ -10466,7 +10466,7 @@
         <v>314330</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C323" s="6">
         <v>44897</v>
@@ -10478,13 +10478,13 @@
         <v>2022</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I323" s="7">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>311340</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C324" s="6">
         <v>44898</v>
@@ -10507,13 +10507,13 @@
         <v>2022</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H324" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I324" s="7">
         <v>1</v>
@@ -10524,7 +10524,7 @@
         <v>311530</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C325" s="6">
         <v>44898</v>
@@ -10536,13 +10536,13 @@
         <v>2022</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I325" s="7">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>314280</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C326" s="6">
         <v>44898</v>
@@ -10565,13 +10565,13 @@
         <v>2022</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I326" s="7">
         <v>1</v>
@@ -10582,7 +10582,7 @@
         <v>313760</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C327" s="6">
         <v>44898</v>
@@ -10594,13 +10594,13 @@
         <v>2022</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I327" s="7">
         <v>1</v>
@@ -10611,7 +10611,7 @@
         <v>311100</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C328" s="6">
         <v>44900</v>
@@ -10623,13 +10623,13 @@
         <v>2022</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I328" s="7">
         <v>1</v>
@@ -10640,7 +10640,7 @@
         <v>313660</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C329" s="6">
         <v>44901</v>
@@ -10652,13 +10652,13 @@
         <v>2022</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I329" s="7">
         <v>1</v>
@@ -10669,7 +10669,7 @@
         <v>310855</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C330" s="6">
         <v>44902</v>
@@ -10681,13 +10681,13 @@
         <v>2022</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I330" s="7">
         <v>1</v>
@@ -10698,7 +10698,7 @@
         <v>315960</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C331" s="6">
         <v>44902</v>
@@ -10710,13 +10710,13 @@
         <v>2022</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I331" s="7">
         <v>1</v>
@@ -10727,7 +10727,7 @@
         <v>312410</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C332" s="6">
         <v>44903</v>
@@ -10739,13 +10739,13 @@
         <v>2022</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I332" s="7">
         <v>1</v>
@@ -10756,7 +10756,7 @@
         <v>310620</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C333" s="6">
         <v>44905</v>
@@ -10768,13 +10768,13 @@
         <v>2022</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I333" s="7">
         <v>1</v>
@@ -10785,7 +10785,7 @@
         <v>314590</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C334" s="6">
         <v>44905</v>
@@ -10797,13 +10797,13 @@
         <v>2022</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I334" s="7">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>314710</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C335" s="6">
         <v>44908</v>
@@ -10826,13 +10826,13 @@
         <v>2022</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I335" s="7">
         <v>1</v>
@@ -10843,7 +10843,7 @@
         <v>317000</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C336" s="6">
         <v>44908</v>
@@ -10855,13 +10855,13 @@
         <v>2022</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I336" s="7">
         <v>1</v>
@@ -10872,7 +10872,7 @@
         <v>313820</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C337" s="6">
         <v>44912</v>
@@ -10884,13 +10884,13 @@
         <v>2022</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I337" s="7">
         <v>1</v>
@@ -10901,7 +10901,7 @@
         <v>316470</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C338" s="6">
         <v>44912</v>
@@ -10913,13 +10913,13 @@
         <v>2022</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I338" s="7">
         <v>1</v>
@@ -10930,7 +10930,7 @@
         <v>313510</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C339" s="6">
         <v>44913</v>
@@ -10942,13 +10942,13 @@
         <v>2022</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I339" s="7">
         <v>1</v>
@@ -10959,7 +10959,7 @@
         <v>316180</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C340" s="6">
         <v>44917</v>
@@ -10971,13 +10971,13 @@
         <v>2022</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I340" s="7">
         <v>1</v>
@@ -10988,7 +10988,7 @@
         <v>313240</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C341" s="6">
         <v>44918</v>
@@ -11000,13 +11000,13 @@
         <v>2022</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I341" s="7">
         <v>1</v>
@@ -11017,7 +11017,7 @@
         <v>317090</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C342" s="6">
         <v>44918</v>
@@ -11029,13 +11029,13 @@
         <v>2022</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I342" s="7">
         <v>1</v>
@@ -11046,7 +11046,7 @@
         <v>316990</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C343" s="6">
         <v>44919</v>
@@ -11058,13 +11058,13 @@
         <v>2022</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H343" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I343" s="7">
         <v>1</v>
@@ -11075,7 +11075,7 @@
         <v>310620</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C344" s="6">
         <v>44919</v>
@@ -11087,13 +11087,13 @@
         <v>2022</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I344" s="7">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>311730</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C345" s="6">
         <v>44920</v>
@@ -11116,13 +11116,13 @@
         <v>2022</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I345" s="7">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>317020</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C346" s="6">
         <v>44920</v>
@@ -11145,13 +11145,13 @@
         <v>2022</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H346" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I346" s="7">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>312750</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C347" s="6">
         <v>44920</v>
@@ -11174,13 +11174,13 @@
         <v>2022</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I347" s="7">
         <v>1</v>
@@ -11191,7 +11191,7 @@
         <v>314310</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C348" s="6">
         <v>44920</v>
@@ -11203,13 +11203,13 @@
         <v>2022</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H348" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I348" s="7">
         <v>1</v>
@@ -11220,7 +11220,7 @@
         <v>316410</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C349" s="6">
         <v>44921</v>
@@ -11232,13 +11232,13 @@
         <v>2022</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I349" s="7">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>313440</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C350" s="6">
         <v>44922</v>
@@ -11261,13 +11261,13 @@
         <v>2022</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I350" s="7">
         <v>1</v>
@@ -11278,7 +11278,7 @@
         <v>317000</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C351" s="6">
         <v>44924</v>
@@ -11290,13 +11290,13 @@
         <v>2022</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I351" s="7">
         <v>1</v>
@@ -11307,7 +11307,7 @@
         <v>314330</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C352" s="6">
         <v>44926</v>
@@ -11319,13 +11319,13 @@
         <v>2022</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H352" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I352" s="7">
         <v>1</v>

--- a/upload/feminicidio_2022.xlsx
+++ b/upload/feminicidio_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0191B65-E1C6-4AF8-B5DE-A3D03DB487E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024D5A7A-52DF-43A3-A4AD-80FC2CBFECE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1065" windowWidth="18000" windowHeight="9360" xr2:uid="{6219A3C7-377C-4061-815C-DBF3A97E8806}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{6219A3C7-377C-4061-815C-DBF3A97E8806}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1107,9 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BFEAD5-FA1A-4BCC-B5C2-8C24C3B8E664}">
   <dimension ref="A1:I352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/upload/feminicidio_2022.xlsx
+++ b/upload/feminicidio_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A4F2A5-54B0-47F9-8703-7C440F25F305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD82383E-463C-4F42-B0C4-AAEF07DF399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A691791E-54AB-4783-ABCA-14ACD84B014C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A691791E-54AB-4783-ABCA-14ACD84B014C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>MANHUACU</t>
   </si>
   <si>
-    <t>12º RISP - Ipatinga</t>
-  </si>
-  <si>
     <t>3) Interior de MG</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>BELO HORIZONTE</t>
   </si>
   <si>
-    <t>1º RISP - Belo Horizonte</t>
-  </si>
-  <si>
     <t>1) Belo Horizonte</t>
   </si>
   <si>
@@ -92,27 +86,15 @@
     <t>SAO ROMAO</t>
   </si>
   <si>
-    <t>14º RISP - Curvelo</t>
-  </si>
-  <si>
     <t>PATOS DE MINAS</t>
   </si>
   <si>
-    <t>10º RISP - Patos de Minas</t>
-  </si>
-  <si>
     <t>CORACAO DE JESUS</t>
   </si>
   <si>
-    <t>11º RISP - Montes Claros</t>
-  </si>
-  <si>
     <t>SAO JOSE DA VARGINHA</t>
   </si>
   <si>
-    <t>7º RISP - Divinópolis</t>
-  </si>
-  <si>
     <t>SANTA MARGARIDA</t>
   </si>
   <si>
@@ -122,60 +104,39 @@
     <t>ESTRELA DO SUL</t>
   </si>
   <si>
-    <t>9º RISP - Uberlândia</t>
-  </si>
-  <si>
     <t>RIBEIRAO DAS NEVES</t>
   </si>
   <si>
-    <t>2º RISP - Contagem</t>
-  </si>
-  <si>
     <t>2) RMBH (sem BH)</t>
   </si>
   <si>
     <t>SANTOS DUMONT</t>
   </si>
   <si>
-    <t>13º RISP - Barbacena</t>
-  </si>
-  <si>
     <t>CONTAGEM</t>
   </si>
   <si>
     <t>VARGINHA</t>
   </si>
   <si>
-    <t>6º RISP - Lavras</t>
-  </si>
-  <si>
     <t>CONCEICAO DO PARA</t>
   </si>
   <si>
     <t>SETE LAGOAS</t>
   </si>
   <si>
-    <t>19º RISP - Sete Lagoas</t>
-  </si>
-  <si>
     <t>BOM DESPACHO</t>
   </si>
   <si>
     <t>SABARA</t>
   </si>
   <si>
-    <t>3º RISP - Vespasiano</t>
-  </si>
-  <si>
     <t>CARBONITA</t>
   </si>
   <si>
     <t>CATAGUASES</t>
   </si>
   <si>
-    <t>4º RISP - Juiz de Fora</t>
-  </si>
-  <si>
     <t>PONTE NOVA</t>
   </si>
   <si>
@@ -185,9 +146,6 @@
     <t>MONTE SIAO</t>
   </si>
   <si>
-    <t>17º RISP - Pouso Alegre</t>
-  </si>
-  <si>
     <t>SANTA LUZIA</t>
   </si>
   <si>
@@ -221,15 +179,9 @@
     <t>PARAGUACU</t>
   </si>
   <si>
-    <t>18º RISP - Poços de Caldas</t>
-  </si>
-  <si>
     <t>URUCUIA</t>
   </si>
   <si>
-    <t>16º RISP - Unaí</t>
-  </si>
-  <si>
     <t>BETIM</t>
   </si>
   <si>
@@ -245,9 +197,6 @@
     <t>SACRAMENTO</t>
   </si>
   <si>
-    <t>5º RISP - Uberaba</t>
-  </si>
-  <si>
     <t>JANUARIA</t>
   </si>
   <si>
@@ -278,9 +227,6 @@
     <t>MEDINA</t>
   </si>
   <si>
-    <t>15º RISP - Teófilo Otoni</t>
-  </si>
-  <si>
     <t>ALFENAS</t>
   </si>
   <si>
@@ -296,9 +242,6 @@
     <t>GOVERNADOR VALADARES</t>
   </si>
   <si>
-    <t>8º RISP - Governador Valadares</t>
-  </si>
-  <si>
     <t>SAO JOAO DA LAGOA</t>
   </si>
   <si>
@@ -699,6 +642,63 @@
   </si>
   <si>
     <t>ITURAMA</t>
+  </si>
+  <si>
+    <t>12º Departamento - Ipatinga</t>
+  </si>
+  <si>
+    <t>1º Departamento - Belo Horizonte</t>
+  </si>
+  <si>
+    <t>14º Departamento - Curvelo</t>
+  </si>
+  <si>
+    <t>10º Departamento - Patos de Minas</t>
+  </si>
+  <si>
+    <t>11º Departamento - Montes Claros</t>
+  </si>
+  <si>
+    <t>7º Departamento - Divinópolis</t>
+  </si>
+  <si>
+    <t>9º Departamento - Uberlândia</t>
+  </si>
+  <si>
+    <t>2º Departamento - Contagem</t>
+  </si>
+  <si>
+    <t>13º Departamento - Barbacena</t>
+  </si>
+  <si>
+    <t>6º Departamento - Lavras</t>
+  </si>
+  <si>
+    <t>19º Departamento - Sete Lagoas</t>
+  </si>
+  <si>
+    <t>3º Departamento - Vespasiano</t>
+  </si>
+  <si>
+    <t>4º Departamento - Juiz de Fora</t>
+  </si>
+  <si>
+    <t>17º Departamento - Pouso Alegre</t>
+  </si>
+  <si>
+    <t>18º Departamento - Poços de Caldas</t>
+  </si>
+  <si>
+    <t>16º Departamento - Unaí</t>
+  </si>
+  <si>
+    <t>5º Departamento - Uberaba</t>
+  </si>
+  <si>
+    <t>15º Departamento - Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>8º Departamento - Governador Valadares</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I352"/>
+      <selection activeCell="A2" sqref="A2:I352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,13 +1162,13 @@
         <v>2022</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>310620</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>44564</v>
@@ -1191,13 +1191,13 @@
         <v>2022</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>316420</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>44564</v>
@@ -1220,13 +1220,13 @@
         <v>2022</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>314800</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>44565</v>
@@ -1249,13 +1249,13 @@
         <v>2022</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>311880</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>44571</v>
@@ -1278,13 +1278,13 @@
         <v>2022</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>316310</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>44572</v>
@@ -1307,13 +1307,13 @@
         <v>2022</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>310620</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>44575</v>
@@ -1336,13 +1336,13 @@
         <v>2022</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>315790</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
         <v>44576</v>
@@ -1365,13 +1365,13 @@
         <v>2022</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>310780</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>44577</v>
@@ -1394,13 +1394,13 @@
         <v>2022</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>312480</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>44577</v>
@@ -1423,13 +1423,13 @@
         <v>2022</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>315460</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>44577</v>
@@ -1452,13 +1452,13 @@
         <v>2022</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>316070</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>44577</v>
@@ -1481,13 +1481,13 @@
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>311860</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
         <v>44578</v>
@@ -1510,13 +1510,13 @@
         <v>2022</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>317070</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>44578</v>
@@ -1539,13 +1539,13 @@
         <v>2022</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>311760</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6">
         <v>44579</v>
@@ -1568,13 +1568,13 @@
         <v>2022</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>316720</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
         <v>44580</v>
@@ -1597,13 +1597,13 @@
         <v>2022</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>316720</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>44586</v>
@@ -1626,13 +1626,13 @@
         <v>2022</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>316720</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6">
         <v>44590</v>
@@ -1655,13 +1655,13 @@
         <v>2022</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>310740</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
         <v>44594</v>
@@ -1684,13 +1684,13 @@
         <v>2022</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>315670</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>44596</v>
@@ -1713,13 +1713,13 @@
         <v>2022</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>311350</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6">
         <v>44596</v>
@@ -1742,13 +1742,13 @@
         <v>2022</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>311530</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6">
         <v>44596</v>
@@ -1771,13 +1771,13 @@
         <v>2022</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>315210</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6">
         <v>44597</v>
@@ -1800,13 +1800,13 @@
         <v>2022</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>310420</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
         <v>44598</v>
@@ -1829,13 +1829,13 @@
         <v>2022</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>310620</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="6">
         <v>44600</v>
@@ -1858,13 +1858,13 @@
         <v>2022</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>314340</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6">
         <v>44600</v>
@@ -1887,13 +1887,13 @@
         <v>2022</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>315780</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6">
         <v>44602</v>
@@ -1916,13 +1916,13 @@
         <v>2022</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>317020</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>44602</v>
@@ -1945,13 +1945,13 @@
         <v>2022</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>312230</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6">
         <v>44604</v>
@@ -1974,13 +1974,13 @@
         <v>2022</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>310620</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="6">
         <v>44605</v>
@@ -2003,13 +2003,13 @@
         <v>2022</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>313720</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6">
         <v>44605</v>
@@ -2032,13 +2032,13 @@
         <v>2022</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>315990</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
         <v>44605</v>
@@ -2061,13 +2061,13 @@
         <v>2022</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>310620</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6">
         <v>44606</v>
@@ -2090,13 +2090,13 @@
         <v>2022</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I34" s="7">
         <v>2</v>
@@ -2107,7 +2107,7 @@
         <v>313220</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6">
         <v>44606</v>
@@ -2119,13 +2119,13 @@
         <v>2022</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>316250</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6">
         <v>44606</v>
@@ -2148,13 +2148,13 @@
         <v>2022</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>313760</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6">
         <v>44607</v>
@@ -2177,13 +2177,13 @@
         <v>2022</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>315780</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6">
         <v>44607</v>
@@ -2206,13 +2206,13 @@
         <v>2022</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38" s="7">
         <v>2</v>
@@ -2223,7 +2223,7 @@
         <v>313190</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C39" s="6">
         <v>44611</v>
@@ -2235,13 +2235,13 @@
         <v>2022</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>317200</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
         <v>44611</v>
@@ -2264,13 +2264,13 @@
         <v>2022</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>314720</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6">
         <v>44614</v>
@@ -2293,13 +2293,13 @@
         <v>2022</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>317052</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6">
         <v>44615</v>
@@ -2322,13 +2322,13 @@
         <v>2022</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>310620</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="6">
         <v>44617</v>
@@ -2351,13 +2351,13 @@
         <v>2022</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>310670</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C44" s="6">
         <v>44617</v>
@@ -2380,13 +2380,13 @@
         <v>2022</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -2397,7 +2397,7 @@
         <v>315460</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6">
         <v>44617</v>
@@ -2409,13 +2409,13 @@
         <v>2022</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>313980</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C46" s="6">
         <v>44618</v>
@@ -2438,13 +2438,13 @@
         <v>2022</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>313630</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C47" s="6">
         <v>44618</v>
@@ -2467,13 +2467,13 @@
         <v>2022</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>313670</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6">
         <v>44618</v>
@@ -2496,13 +2496,13 @@
         <v>2022</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>315690</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C49" s="6">
         <v>44619</v>
@@ -2525,13 +2525,13 @@
         <v>2022</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>313520</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C50" s="6">
         <v>44620</v>
@@ -2554,13 +2554,13 @@
         <v>2022</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>311230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6">
         <v>44621</v>
@@ -2583,13 +2583,13 @@
         <v>2022</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>317010</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C52" s="6">
         <v>44622</v>
@@ -2612,13 +2612,13 @@
         <v>2022</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         <v>313520</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C53" s="6">
         <v>44623</v>
@@ -2641,13 +2641,13 @@
         <v>2022</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>313380</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6">
         <v>44624</v>
@@ -2670,13 +2670,13 @@
         <v>2022</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>312530</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C55" s="6">
         <v>44625</v>
@@ -2699,13 +2699,13 @@
         <v>2022</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" s="7">
         <v>2</v>
@@ -2716,7 +2716,7 @@
         <v>311340</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C56" s="6">
         <v>44627</v>
@@ -2728,13 +2728,13 @@
         <v>2022</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2745,7 +2745,7 @@
         <v>310620</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="6">
         <v>44627</v>
@@ -2757,13 +2757,13 @@
         <v>2022</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -2774,7 +2774,7 @@
         <v>317020</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C58" s="6">
         <v>44629</v>
@@ -2786,13 +2786,13 @@
         <v>2022</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>314330</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C59" s="6">
         <v>44630</v>
@@ -2815,13 +2815,13 @@
         <v>2022</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>315670</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C60" s="6">
         <v>44631</v>
@@ -2844,13 +2844,13 @@
         <v>2022</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>310400</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C61" s="6">
         <v>44632</v>
@@ -2873,13 +2873,13 @@
         <v>2022</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>315170</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C62" s="6">
         <v>44632</v>
@@ -2902,13 +2902,13 @@
         <v>2022</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>314140</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C63" s="6">
         <v>44632</v>
@@ -2931,13 +2931,13 @@
         <v>2022</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>310160</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C64" s="6">
         <v>44633</v>
@@ -2960,13 +2960,13 @@
         <v>2022</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>316930</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C65" s="6">
         <v>44633</v>
@@ -2989,13 +2989,13 @@
         <v>2022</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -3006,7 +3006,7 @@
         <v>313670</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C66" s="6">
         <v>44633</v>
@@ -3018,13 +3018,13 @@
         <v>2022</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="7">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>316860</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C67" s="6">
         <v>44635</v>
@@ -3047,13 +3047,13 @@
         <v>2022</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         <v>316695</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6">
         <v>44637</v>
@@ -3076,13 +3076,13 @@
         <v>2022</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>312770</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C69" s="6">
         <v>44638</v>
@@ -3105,13 +3105,13 @@
         <v>2022</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>316225</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C70" s="6">
         <v>44638</v>
@@ -3134,13 +3134,13 @@
         <v>2022</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I70" s="7">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>311730</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C71" s="6">
         <v>44638</v>
@@ -3163,13 +3163,13 @@
         <v>2022</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -3180,7 +3180,7 @@
         <v>316150</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C72" s="6">
         <v>44639</v>
@@ -3192,13 +3192,13 @@
         <v>2022</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I72" s="7">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>313750</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C73" s="6">
         <v>44639</v>
@@ -3221,13 +3221,13 @@
         <v>2022</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -3238,7 +3238,7 @@
         <v>310620</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="6">
         <v>44640</v>
@@ -3250,13 +3250,13 @@
         <v>2022</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>310620</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="6">
         <v>44641</v>
@@ -3279,13 +3279,13 @@
         <v>2022</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>310620</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="6">
         <v>44643</v>
@@ -3308,13 +3308,13 @@
         <v>2022</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I76" s="7">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>310270</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C77" s="6">
         <v>44643</v>
@@ -3337,13 +3337,13 @@
         <v>2022</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>311130</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C78" s="6">
         <v>44643</v>
@@ -3366,13 +3366,13 @@
         <v>2022</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="7">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v>317070</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C79" s="6">
         <v>44644</v>
@@ -3395,13 +3395,13 @@
         <v>2022</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I79" s="7">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>316340</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C80" s="6">
         <v>44646</v>
@@ -3424,13 +3424,13 @@
         <v>2022</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -3441,7 +3441,7 @@
         <v>313960</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C81" s="6">
         <v>44646</v>
@@ -3453,13 +3453,13 @@
         <v>2022</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>310620</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" s="6">
         <v>44647</v>
@@ -3482,13 +3482,13 @@
         <v>2022</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" s="7">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>313550</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C83" s="6">
         <v>44648</v>
@@ -3511,13 +3511,13 @@
         <v>2022</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>315140</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C84" s="6">
         <v>44649</v>
@@ -3540,13 +3540,13 @@
         <v>2022</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>317010</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C85" s="6">
         <v>44654</v>
@@ -3569,13 +3569,13 @@
         <v>2022</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>316550</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C86" s="6">
         <v>44654</v>
@@ -3598,13 +3598,13 @@
         <v>2022</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>312770</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C87" s="6">
         <v>44655</v>
@@ -3627,13 +3627,13 @@
         <v>2022</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>310150</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C88" s="6">
         <v>44658</v>
@@ -3656,13 +3656,13 @@
         <v>2022</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>313620</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C89" s="6">
         <v>44658</v>
@@ -3685,13 +3685,13 @@
         <v>2022</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -3702,7 +3702,7 @@
         <v>313010</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C90" s="6">
         <v>44659</v>
@@ -3714,13 +3714,13 @@
         <v>2022</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>314980</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C91" s="6">
         <v>44660</v>
@@ -3743,13 +3743,13 @@
         <v>2022</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>316350</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C92" s="6">
         <v>44661</v>
@@ -3772,13 +3772,13 @@
         <v>2022</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" s="7">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         <v>317200</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C93" s="6">
         <v>44662</v>
@@ -3801,13 +3801,13 @@
         <v>2022</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I93" s="7">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>310170</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C94" s="6">
         <v>44663</v>
@@ -3830,13 +3830,13 @@
         <v>2022</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I94" s="7">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>315445</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C95" s="6">
         <v>44664</v>
@@ -3859,13 +3859,13 @@
         <v>2022</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" s="7">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>313130</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C96" s="6">
         <v>44666</v>
@@ -3888,13 +3888,13 @@
         <v>2022</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I96" s="7">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>315810</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C97" s="6">
         <v>44666</v>
@@ -3917,13 +3917,13 @@
         <v>2022</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="7">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>315250</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C98" s="6">
         <v>44667</v>
@@ -3946,13 +3946,13 @@
         <v>2022</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I98" s="7">
         <v>1</v>
@@ -3963,7 +3963,7 @@
         <v>314710</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C99" s="6">
         <v>44667</v>
@@ -3975,13 +3975,13 @@
         <v>2022</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="7">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>313250</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C100" s="6">
         <v>44669</v>
@@ -4004,13 +4004,13 @@
         <v>2022</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="7">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>314070</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C101" s="6">
         <v>44672</v>
@@ -4033,13 +4033,13 @@
         <v>2022</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I101" s="7">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>310620</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="6">
         <v>44672</v>
@@ -4062,13 +4062,13 @@
         <v>2022</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="7">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>313130</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C103" s="6">
         <v>44673</v>
@@ -4091,13 +4091,13 @@
         <v>2022</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I103" s="7">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>315700</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C104" s="6">
         <v>44673</v>
@@ -4120,13 +4120,13 @@
         <v>2022</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="7">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>313830</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C105" s="6">
         <v>44674</v>
@@ -4149,13 +4149,13 @@
         <v>2022</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I105" s="7">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>314520</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C106" s="6">
         <v>44675</v>
@@ -4178,13 +4178,13 @@
         <v>2022</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I106" s="7">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>310620</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="6">
         <v>44675</v>
@@ -4207,13 +4207,13 @@
         <v>2022</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I107" s="7">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>317052</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C108" s="6">
         <v>44677</v>
@@ -4236,13 +4236,13 @@
         <v>2022</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I108" s="7">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>314800</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C109" s="6">
         <v>44680</v>
@@ -4265,13 +4265,13 @@
         <v>2022</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" s="7">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>313170</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C110" s="6">
         <v>44681</v>
@@ -4294,13 +4294,13 @@
         <v>2022</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I110" s="7">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>315895</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C111" s="6">
         <v>44681</v>
@@ -4323,13 +4323,13 @@
         <v>2022</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I111" s="7">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>314625</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C112" s="6">
         <v>44682</v>
@@ -4352,13 +4352,13 @@
         <v>2022</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I112" s="7">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>315250</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C113" s="6">
         <v>44682</v>
@@ -4381,13 +4381,13 @@
         <v>2022</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I113" s="7">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>310670</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C114" s="6">
         <v>44684</v>
@@ -4410,13 +4410,13 @@
         <v>2022</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I114" s="7">
         <v>1</v>
@@ -4427,7 +4427,7 @@
         <v>315460</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C115" s="6">
         <v>44684</v>
@@ -4439,13 +4439,13 @@
         <v>2022</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I115" s="7">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>312840</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C116" s="6">
         <v>44685</v>
@@ -4468,13 +4468,13 @@
         <v>2022</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I116" s="7">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>313010</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C117" s="6">
         <v>44685</v>
@@ -4497,13 +4497,13 @@
         <v>2022</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I117" s="7">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>311860</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C118" s="6">
         <v>44685</v>
@@ -4526,13 +4526,13 @@
         <v>2022</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>313840</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C119" s="6">
         <v>44685</v>
@@ -4555,13 +4555,13 @@
         <v>2022</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>315280</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C120" s="6">
         <v>44685</v>
@@ -4584,13 +4584,13 @@
         <v>2022</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>310620</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="6">
         <v>44688</v>
@@ -4613,13 +4613,13 @@
         <v>2022</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I121" s="7">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>310285</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C122" s="6">
         <v>44689</v>
@@ -4642,13 +4642,13 @@
         <v>2022</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I122" s="7">
         <v>1</v>
@@ -4659,7 +4659,7 @@
         <v>317020</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C123" s="6">
         <v>44690</v>
@@ -4671,13 +4671,13 @@
         <v>2022</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I123" s="7">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>312980</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C124" s="6">
         <v>44692</v>
@@ -4700,13 +4700,13 @@
         <v>2022</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I124" s="7">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>312770</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C125" s="6">
         <v>44694</v>
@@ -4729,13 +4729,13 @@
         <v>2022</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I125" s="7">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>314710</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C126" s="6">
         <v>44694</v>
@@ -4758,13 +4758,13 @@
         <v>2022</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I126" s="7">
         <v>1</v>
@@ -4775,7 +4775,7 @@
         <v>315490</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C127" s="6">
         <v>44695</v>
@@ -4787,13 +4787,13 @@
         <v>2022</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I127" s="7">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>316990</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C128" s="6">
         <v>44695</v>
@@ -4816,13 +4816,13 @@
         <v>2022</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I128" s="7">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>315200</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C129" s="6">
         <v>44695</v>
@@ -4845,13 +4845,13 @@
         <v>2022</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I129" s="7">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>312090</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C130" s="6">
         <v>44696</v>
@@ -4874,13 +4874,13 @@
         <v>2022</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I130" s="7">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>317020</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C131" s="6">
         <v>44697</v>
@@ -4903,13 +4903,13 @@
         <v>2022</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I131" s="7">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>310620</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" s="6">
         <v>44698</v>
@@ -4932,13 +4932,13 @@
         <v>2022</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I132" s="7">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>316260</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C133" s="6">
         <v>44702</v>
@@ -4961,13 +4961,13 @@
         <v>2022</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I133" s="7">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>315460</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C134" s="6">
         <v>44703</v>
@@ -4990,13 +4990,13 @@
         <v>2022</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I134" s="7">
         <v>1</v>
@@ -5007,7 +5007,7 @@
         <v>310620</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" s="6">
         <v>44704</v>
@@ -5019,13 +5019,13 @@
         <v>2022</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I135" s="7">
         <v>1</v>
@@ -5036,7 +5036,7 @@
         <v>317107</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C136" s="6">
         <v>44704</v>
@@ -5048,13 +5048,13 @@
         <v>2022</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>313670</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C137" s="6">
         <v>44706</v>
@@ -5077,13 +5077,13 @@
         <v>2022</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
@@ -5094,7 +5094,7 @@
         <v>310270</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C138" s="6">
         <v>44706</v>
@@ -5106,13 +5106,13 @@
         <v>2022</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I138" s="7">
         <v>1</v>
@@ -5123,7 +5123,7 @@
         <v>311230</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C139" s="6">
         <v>44706</v>
@@ -5135,13 +5135,13 @@
         <v>2022</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>312610</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C140" s="6">
         <v>44707</v>
@@ -5164,13 +5164,13 @@
         <v>2022</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I140" s="7">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>316110</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C141" s="6">
         <v>44708</v>
@@ -5193,13 +5193,13 @@
         <v>2022</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I141" s="7">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>311230</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C142" s="6">
         <v>44708</v>
@@ -5222,13 +5222,13 @@
         <v>2022</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I142" s="7">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         <v>316070</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C143" s="6">
         <v>44708</v>
@@ -5251,13 +5251,13 @@
         <v>2022</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I143" s="7">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>313400</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C144" s="6">
         <v>44709</v>
@@ -5280,13 +5280,13 @@
         <v>2022</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I144" s="7">
         <v>1</v>
@@ -5297,7 +5297,7 @@
         <v>316860</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C145" s="6">
         <v>44709</v>
@@ -5309,13 +5309,13 @@
         <v>2022</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>311740</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C146" s="6">
         <v>44710</v>
@@ -5338,13 +5338,13 @@
         <v>2022</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>315690</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C147" s="6">
         <v>44710</v>
@@ -5367,13 +5367,13 @@
         <v>2022</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I147" s="7">
         <v>1</v>
@@ -5384,7 +5384,7 @@
         <v>312230</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C148" s="6">
         <v>44711</v>
@@ -5396,13 +5396,13 @@
         <v>2022</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I148" s="7">
         <v>2</v>
@@ -5413,7 +5413,7 @@
         <v>317070</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C149" s="6">
         <v>44711</v>
@@ -5425,13 +5425,13 @@
         <v>2022</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I149" s="7">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>315180</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C150" s="6">
         <v>44712</v>
@@ -5454,13 +5454,13 @@
         <v>2022</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>311860</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C151" s="6">
         <v>44713</v>
@@ -5483,13 +5483,13 @@
         <v>2022</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>316860</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C152" s="6">
         <v>44715</v>
@@ -5512,13 +5512,13 @@
         <v>2022</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I152" s="7">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>315460</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C153" s="6">
         <v>44716</v>
@@ -5541,13 +5541,13 @@
         <v>2022</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I153" s="7">
         <v>1</v>
@@ -5558,7 +5558,7 @@
         <v>316860</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C154" s="6">
         <v>44716</v>
@@ -5570,13 +5570,13 @@
         <v>2022</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="7">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>310620</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="6">
         <v>44717</v>
@@ -5599,13 +5599,13 @@
         <v>2022</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" s="7">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>310090</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C156" s="6">
         <v>44719</v>
@@ -5628,13 +5628,13 @@
         <v>2022</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" s="7">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>310620</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="6">
         <v>44720</v>
@@ -5657,13 +5657,13 @@
         <v>2022</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I157" s="7">
         <v>1</v>
@@ -5674,7 +5674,7 @@
         <v>314590</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C158" s="6">
         <v>44722</v>
@@ -5686,13 +5686,13 @@
         <v>2022</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>314520</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C159" s="6">
         <v>44730</v>
@@ -5715,13 +5715,13 @@
         <v>2022</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I159" s="7">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>310620</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="6">
         <v>44731</v>
@@ -5744,13 +5744,13 @@
         <v>2022</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" s="7">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>312490</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C161" s="6">
         <v>44731</v>
@@ -5773,13 +5773,13 @@
         <v>2022</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="7">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>317120</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C162" s="6">
         <v>44731</v>
@@ -5802,13 +5802,13 @@
         <v>2022</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="7">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>316990</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C163" s="6">
         <v>44732</v>
@@ -5831,13 +5831,13 @@
         <v>2022</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I163" s="7">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         <v>316292</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C164" s="6">
         <v>44735</v>
@@ -5860,13 +5860,13 @@
         <v>2022</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I164" s="7">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         <v>316210</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C165" s="6">
         <v>44736</v>
@@ -5889,13 +5889,13 @@
         <v>2022</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I165" s="7">
         <v>1</v>
@@ -5906,7 +5906,7 @@
         <v>315670</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C166" s="6">
         <v>44736</v>
@@ -5918,13 +5918,13 @@
         <v>2022</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" s="7">
         <v>1</v>
@@ -5935,7 +5935,7 @@
         <v>312880</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C167" s="6">
         <v>44741</v>
@@ -5947,13 +5947,13 @@
         <v>2022</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I167" s="7">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>311420</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C168" s="6">
         <v>44742</v>
@@ -5976,13 +5976,13 @@
         <v>2022</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I168" s="7">
         <v>1</v>
@@ -5993,7 +5993,7 @@
         <v>313650</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C169" s="6">
         <v>44742</v>
@@ -6005,13 +6005,13 @@
         <v>2022</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I169" s="7">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>311880</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C170" s="6">
         <v>44744</v>
@@ -6034,13 +6034,13 @@
         <v>2022</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I170" s="7">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>315100</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C171" s="6">
         <v>44746</v>
@@ -6063,13 +6063,13 @@
         <v>2022</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I171" s="7">
         <v>1</v>
@@ -6080,7 +6080,7 @@
         <v>311330</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C172" s="6">
         <v>44749</v>
@@ -6092,13 +6092,13 @@
         <v>2022</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I172" s="7">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>315350</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C173" s="6">
         <v>44751</v>
@@ -6121,13 +6121,13 @@
         <v>2022</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="7">
         <v>1</v>
@@ -6138,7 +6138,7 @@
         <v>310620</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C174" s="6">
         <v>44752</v>
@@ -6150,13 +6150,13 @@
         <v>2022</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I174" s="7">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         <v>317020</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C175" s="6">
         <v>44753</v>
@@ -6179,13 +6179,13 @@
         <v>2022</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I175" s="7">
         <v>1</v>
@@ -6196,7 +6196,7 @@
         <v>310350</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C176" s="6">
         <v>44753</v>
@@ -6208,13 +6208,13 @@
         <v>2022</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>310900</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C177" s="6">
         <v>44754</v>
@@ -6237,13 +6237,13 @@
         <v>2022</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I177" s="7">
         <v>3</v>
@@ -6254,7 +6254,7 @@
         <v>317020</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C178" s="6">
         <v>44754</v>
@@ -6266,13 +6266,13 @@
         <v>2022</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I178" s="7">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>313170</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C179" s="6">
         <v>44755</v>
@@ -6295,13 +6295,13 @@
         <v>2022</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I179" s="7">
         <v>1</v>
@@ -6312,7 +6312,7 @@
         <v>315210</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C180" s="6">
         <v>44757</v>
@@ -6324,13 +6324,13 @@
         <v>2022</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
@@ -6341,7 +6341,7 @@
         <v>310670</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C181" s="6">
         <v>44759</v>
@@ -6353,13 +6353,13 @@
         <v>2022</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>316150</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C182" s="6">
         <v>44759</v>
@@ -6382,13 +6382,13 @@
         <v>2022</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I182" s="7">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>314810</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C183" s="6">
         <v>44761</v>
@@ -6411,13 +6411,13 @@
         <v>2022</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I183" s="7">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>315180</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C184" s="6">
         <v>44763</v>
@@ -6440,13 +6440,13 @@
         <v>2022</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I184" s="7">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>312230</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C185" s="6">
         <v>44764</v>
@@ -6469,13 +6469,13 @@
         <v>2022</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I185" s="7">
         <v>1</v>
@@ -6486,7 +6486,7 @@
         <v>314600</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C186" s="6">
         <v>44764</v>
@@ -6498,13 +6498,13 @@
         <v>2022</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I186" s="7">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>314980</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C187" s="6">
         <v>44764</v>
@@ -6527,13 +6527,13 @@
         <v>2022</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I187" s="7">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>317150</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C188" s="6">
         <v>44764</v>
@@ -6556,13 +6556,13 @@
         <v>2022</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I188" s="7">
         <v>1</v>
@@ -6573,7 +6573,7 @@
         <v>312610</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C189" s="6">
         <v>44765</v>
@@ -6585,13 +6585,13 @@
         <v>2022</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I189" s="7">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>310620</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C190" s="6">
         <v>44765</v>
@@ -6614,13 +6614,13 @@
         <v>2022</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I190" s="7">
         <v>1</v>
@@ -6631,7 +6631,7 @@
         <v>314330</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C191" s="6">
         <v>44766</v>
@@ -6643,13 +6643,13 @@
         <v>2022</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I191" s="7">
         <v>1</v>
@@ -6660,7 +6660,7 @@
         <v>311120</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C192" s="6">
         <v>44766</v>
@@ -6672,13 +6672,13 @@
         <v>2022</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I192" s="7">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>310620</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C193" s="6">
         <v>44770</v>
@@ -6701,13 +6701,13 @@
         <v>2022</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I193" s="7">
         <v>2</v>
@@ -6718,7 +6718,7 @@
         <v>313010</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C194" s="6">
         <v>44771</v>
@@ -6730,13 +6730,13 @@
         <v>2022</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I194" s="7">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>313230</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C195" s="6">
         <v>44771</v>
@@ -6759,13 +6759,13 @@
         <v>2022</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I195" s="7">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>313240</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C196" s="6">
         <v>44772</v>
@@ -6788,13 +6788,13 @@
         <v>2022</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I196" s="7">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>312410</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C197" s="6">
         <v>44772</v>
@@ -6817,13 +6817,13 @@
         <v>2022</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>310375</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C198" s="6">
         <v>44773</v>
@@ -6846,13 +6846,13 @@
         <v>2022</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
@@ -6863,7 +6863,7 @@
         <v>313050</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C199" s="6">
         <v>44775</v>
@@ -6875,13 +6875,13 @@
         <v>2022</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
@@ -6892,7 +6892,7 @@
         <v>313753</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C200" s="6">
         <v>44775</v>
@@ -6904,13 +6904,13 @@
         <v>2022</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
@@ -6921,7 +6921,7 @@
         <v>310620</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" s="6">
         <v>44777</v>
@@ -6933,13 +6933,13 @@
         <v>2022</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I201" s="7">
         <v>1</v>
@@ -6962,13 +6962,13 @@
         <v>2022</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I202" s="7">
         <v>1</v>
@@ -6979,7 +6979,7 @@
         <v>315053</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C203" s="6">
         <v>44779</v>
@@ -6991,13 +6991,13 @@
         <v>2022</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I203" s="7">
         <v>1</v>
@@ -7008,7 +7008,7 @@
         <v>310400</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C204" s="6">
         <v>44779</v>
@@ -7020,13 +7020,13 @@
         <v>2022</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I204" s="7">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>313980</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C205" s="6">
         <v>44779</v>
@@ -7049,13 +7049,13 @@
         <v>2022</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I205" s="7">
         <v>1</v>
@@ -7066,7 +7066,7 @@
         <v>313630</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C206" s="6">
         <v>44780</v>
@@ -7078,13 +7078,13 @@
         <v>2022</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>314800</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C207" s="6">
         <v>44780</v>
@@ -7107,13 +7107,13 @@
         <v>2022</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I207" s="7">
         <v>1</v>
@@ -7124,7 +7124,7 @@
         <v>317010</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C208" s="6">
         <v>44780</v>
@@ -7136,13 +7136,13 @@
         <v>2022</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I208" s="7">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>311860</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C209" s="6">
         <v>44781</v>
@@ -7165,13 +7165,13 @@
         <v>2022</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I209" s="7">
         <v>1</v>
@@ -7182,7 +7182,7 @@
         <v>310620</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C210" s="6">
         <v>44782</v>
@@ -7194,13 +7194,13 @@
         <v>2022</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I210" s="7">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         <v>310620</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C211" s="6">
         <v>44784</v>
@@ -7223,13 +7223,13 @@
         <v>2022</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I211" s="7">
         <v>2</v>
@@ -7240,7 +7240,7 @@
         <v>312360</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C212" s="6">
         <v>44784</v>
@@ -7252,13 +7252,13 @@
         <v>2022</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I212" s="7">
         <v>1</v>
@@ -7269,7 +7269,7 @@
         <v>316850</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C213" s="6">
         <v>44784</v>
@@ -7281,13 +7281,13 @@
         <v>2022</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I213" s="7">
         <v>1</v>
@@ -7298,7 +7298,7 @@
         <v>311860</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C214" s="6">
         <v>44786</v>
@@ -7310,13 +7310,13 @@
         <v>2022</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I214" s="7">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>310620</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215" s="6">
         <v>44788</v>
@@ -7339,13 +7339,13 @@
         <v>2022</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I215" s="7">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>311115</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C216" s="6">
         <v>44788</v>
@@ -7368,13 +7368,13 @@
         <v>2022</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I216" s="7">
         <v>1</v>
@@ -7385,7 +7385,7 @@
         <v>314710</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C217" s="6">
         <v>44788</v>
@@ -7397,13 +7397,13 @@
         <v>2022</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I217" s="7">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>313130</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C218" s="6">
         <v>44791</v>
@@ -7426,13 +7426,13 @@
         <v>2022</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I218" s="7">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>310620</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" s="6">
         <v>44792</v>
@@ -7455,13 +7455,13 @@
         <v>2022</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I219" s="7">
         <v>1</v>
@@ -7472,7 +7472,7 @@
         <v>313470</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C220" s="6">
         <v>44792</v>
@@ -7484,13 +7484,13 @@
         <v>2022</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I220" s="7">
         <v>1</v>
@@ -7501,7 +7501,7 @@
         <v>311090</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C221" s="6">
         <v>44793</v>
@@ -7513,13 +7513,13 @@
         <v>2022</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I221" s="7">
         <v>1</v>
@@ -7530,7 +7530,7 @@
         <v>310530</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C222" s="6">
         <v>44794</v>
@@ -7542,13 +7542,13 @@
         <v>2022</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I222" s="7">
         <v>2</v>
@@ -7559,7 +7559,7 @@
         <v>314310</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C223" s="6">
         <v>44796</v>
@@ -7571,13 +7571,13 @@
         <v>2022</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I223" s="7">
         <v>1</v>
@@ -7588,7 +7588,7 @@
         <v>315460</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C224" s="6">
         <v>44798</v>
@@ -7600,13 +7600,13 @@
         <v>2022</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I224" s="7">
         <v>1</v>
@@ -7617,7 +7617,7 @@
         <v>313670</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C225" s="6">
         <v>44799</v>
@@ -7629,13 +7629,13 @@
         <v>2022</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I225" s="7">
         <v>1</v>
@@ -7646,7 +7646,7 @@
         <v>310620</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C226" s="6">
         <v>44802</v>
@@ -7658,13 +7658,13 @@
         <v>2022</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I226" s="7">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>310670</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C227" s="6">
         <v>44802</v>
@@ -7687,13 +7687,13 @@
         <v>2022</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I227" s="7">
         <v>1</v>
@@ -7704,7 +7704,7 @@
         <v>312770</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C228" s="6">
         <v>44802</v>
@@ -7716,13 +7716,13 @@
         <v>2022</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I228" s="7">
         <v>1</v>
@@ -7733,7 +7733,7 @@
         <v>313650</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C229" s="6">
         <v>44804</v>
@@ -7745,13 +7745,13 @@
         <v>2022</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I229" s="7">
         <v>1</v>
@@ -7762,7 +7762,7 @@
         <v>312590</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C230" s="6">
         <v>44804</v>
@@ -7774,13 +7774,13 @@
         <v>2022</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I230" s="7">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         <v>310340</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C231" s="6">
         <v>44806</v>
@@ -7803,13 +7803,13 @@
         <v>2022</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I231" s="7">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>310160</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C232" s="6">
         <v>44807</v>
@@ -7832,13 +7832,13 @@
         <v>2022</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I232" s="7">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>313670</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C233" s="6">
         <v>44807</v>
@@ -7861,13 +7861,13 @@
         <v>2022</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I233" s="7">
         <v>1</v>
@@ -7878,7 +7878,7 @@
         <v>314970</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C234" s="6">
         <v>44807</v>
@@ -7890,13 +7890,13 @@
         <v>2022</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I234" s="7">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>315460</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C235" s="6">
         <v>44809</v>
@@ -7919,13 +7919,13 @@
         <v>2022</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I235" s="7">
         <v>1</v>
@@ -7936,7 +7936,7 @@
         <v>315460</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C236" s="6">
         <v>44810</v>
@@ -7948,13 +7948,13 @@
         <v>2022</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I236" s="7">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         <v>316450</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C237" s="6">
         <v>44810</v>
@@ -7977,13 +7977,13 @@
         <v>2022</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I237" s="7">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>317005</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C238" s="6">
         <v>44811</v>
@@ -8006,13 +8006,13 @@
         <v>2022</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>316630</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C239" s="6">
         <v>44815</v>
@@ -8035,13 +8035,13 @@
         <v>2022</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I239" s="7">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>313652</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C240" s="6">
         <v>44818</v>
@@ -8064,13 +8064,13 @@
         <v>2022</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -8081,7 +8081,7 @@
         <v>310670</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C241" s="6">
         <v>44818</v>
@@ -8093,13 +8093,13 @@
         <v>2022</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I241" s="7">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>314480</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C242" s="6">
         <v>44819</v>
@@ -8122,13 +8122,13 @@
         <v>2022</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I242" s="7">
         <v>1</v>
@@ -8139,7 +8139,7 @@
         <v>310810</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C243" s="6">
         <v>44822</v>
@@ -8151,13 +8151,13 @@
         <v>2022</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I243" s="7">
         <v>1</v>
@@ -8168,7 +8168,7 @@
         <v>310270</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C244" s="6">
         <v>44822</v>
@@ -8180,13 +8180,13 @@
         <v>2022</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I244" s="7">
         <v>1</v>
@@ -8197,7 +8197,7 @@
         <v>310160</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C245" s="6">
         <v>44823</v>
@@ -8209,13 +8209,13 @@
         <v>2022</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I245" s="7">
         <v>1</v>
@@ -8226,7 +8226,7 @@
         <v>312770</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C246" s="6">
         <v>44825</v>
@@ -8238,13 +8238,13 @@
         <v>2022</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I246" s="7">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>314880</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C247" s="6">
         <v>44827</v>
@@ -8267,13 +8267,13 @@
         <v>2022</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I247" s="7">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>310620</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C248" s="6">
         <v>44828</v>
@@ -8296,13 +8296,13 @@
         <v>2022</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I248" s="7">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>313460</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C249" s="6">
         <v>44828</v>
@@ -8325,13 +8325,13 @@
         <v>2022</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I249" s="7">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>317020</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C250" s="6">
         <v>44829</v>
@@ -8354,13 +8354,13 @@
         <v>2022</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I250" s="7">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>310340</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C251" s="6">
         <v>44831</v>
@@ -8383,13 +8383,13 @@
         <v>2022</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I251" s="7">
         <v>1</v>
@@ -8400,7 +8400,7 @@
         <v>314000</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C252" s="6">
         <v>44831</v>
@@ -8412,13 +8412,13 @@
         <v>2022</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I252" s="7">
         <v>1</v>
@@ -8429,7 +8429,7 @@
         <v>313170</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C253" s="6">
         <v>44832</v>
@@ -8441,13 +8441,13 @@
         <v>2022</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I253" s="7">
         <v>1</v>
@@ -8458,7 +8458,7 @@
         <v>313700</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C254" s="6">
         <v>44832</v>
@@ -8470,13 +8470,13 @@
         <v>2022</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I254" s="7">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>315250</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C255" s="6">
         <v>44832</v>
@@ -8499,13 +8499,13 @@
         <v>2022</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I255" s="7">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>310260</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C256" s="6">
         <v>44833</v>
@@ -8528,13 +8528,13 @@
         <v>2022</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I256" s="7">
         <v>1</v>
@@ -8545,7 +8545,7 @@
         <v>314520</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C257" s="6">
         <v>44834</v>
@@ -8557,13 +8557,13 @@
         <v>2022</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I257" s="7">
         <v>1</v>
@@ -8574,7 +8574,7 @@
         <v>310620</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C258" s="6">
         <v>44835</v>
@@ -8586,13 +8586,13 @@
         <v>2022</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I258" s="7">
         <v>1</v>
@@ -8615,13 +8615,13 @@
         <v>2022</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I259" s="7">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>314790</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C260" s="6">
         <v>44836</v>
@@ -8644,13 +8644,13 @@
         <v>2022</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I260" s="7">
         <v>1</v>
@@ -8661,7 +8661,7 @@
         <v>310620</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C261" s="6">
         <v>44837</v>
@@ -8673,13 +8673,13 @@
         <v>2022</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I261" s="7">
         <v>1</v>
@@ -8690,7 +8690,7 @@
         <v>316400</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C262" s="6">
         <v>44837</v>
@@ -8702,13 +8702,13 @@
         <v>2022</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I262" s="7">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>316900</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C263" s="6">
         <v>44838</v>
@@ -8731,13 +8731,13 @@
         <v>2022</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I263" s="7">
         <v>1</v>
@@ -8748,7 +8748,7 @@
         <v>310670</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C264" s="6">
         <v>44839</v>
@@ -8760,13 +8760,13 @@
         <v>2022</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I264" s="7">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>311860</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C265" s="6">
         <v>44841</v>
@@ -8789,13 +8789,13 @@
         <v>2022</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I265" s="7">
         <v>1</v>
@@ -8806,7 +8806,7 @@
         <v>311615</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C266" s="6">
         <v>44842</v>
@@ -8818,13 +8818,13 @@
         <v>2022</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I266" s="7">
         <v>1</v>
@@ -8835,7 +8835,7 @@
         <v>314700</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C267" s="6">
         <v>44842</v>
@@ -8847,13 +8847,13 @@
         <v>2022</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I267" s="7">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>311340</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C268" s="6">
         <v>44842</v>
@@ -8876,13 +8876,13 @@
         <v>2022</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I268" s="7">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>312800</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C269" s="6">
         <v>44843</v>
@@ -8905,13 +8905,13 @@
         <v>2022</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I269" s="7">
         <v>1</v>
@@ -8922,7 +8922,7 @@
         <v>312630</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C270" s="6">
         <v>44844</v>
@@ -8934,13 +8934,13 @@
         <v>2022</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I270" s="7">
         <v>1</v>
@@ -8951,7 +8951,7 @@
         <v>317040</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C271" s="6">
         <v>44845</v>
@@ -8963,13 +8963,13 @@
         <v>2022</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I271" s="7">
         <v>1</v>
@@ -8980,7 +8980,7 @@
         <v>310620</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" s="6">
         <v>44846</v>
@@ -8992,13 +8992,13 @@
         <v>2022</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I272" s="7">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>311950</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C273" s="6">
         <v>44847</v>
@@ -9021,13 +9021,13 @@
         <v>2022</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I273" s="7">
         <v>1</v>
@@ -9038,7 +9038,7 @@
         <v>313580</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C274" s="6">
         <v>44848</v>
@@ -9050,13 +9050,13 @@
         <v>2022</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I274" s="7">
         <v>1</v>
@@ -9067,7 +9067,7 @@
         <v>316210</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C275" s="6">
         <v>44849</v>
@@ -9079,13 +9079,13 @@
         <v>2022</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I275" s="7">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>314800</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C276" s="6">
         <v>44849</v>
@@ -9108,13 +9108,13 @@
         <v>2022</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I276" s="7">
         <v>1</v>
@@ -9125,7 +9125,7 @@
         <v>315460</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C277" s="6">
         <v>44850</v>
@@ -9137,13 +9137,13 @@
         <v>2022</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I277" s="7">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>310670</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C278" s="6">
         <v>44850</v>
@@ -9166,13 +9166,13 @@
         <v>2022</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I278" s="7">
         <v>1</v>
@@ -9183,7 +9183,7 @@
         <v>313670</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C279" s="6">
         <v>44851</v>
@@ -9195,13 +9195,13 @@
         <v>2022</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I279" s="7">
         <v>1</v>
@@ -9212,7 +9212,7 @@
         <v>315780</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C280" s="6">
         <v>44851</v>
@@ -9224,13 +9224,13 @@
         <v>2022</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I280" s="7">
         <v>1</v>
@@ -9241,7 +9241,7 @@
         <v>312980</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C281" s="6">
         <v>44853</v>
@@ -9253,13 +9253,13 @@
         <v>2022</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I281" s="7">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>310620</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C282" s="6">
         <v>44856</v>
@@ -9282,13 +9282,13 @@
         <v>2022</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I282" s="7">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>311860</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C283" s="6">
         <v>44857</v>
@@ -9311,13 +9311,13 @@
         <v>2022</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I283" s="7">
         <v>2</v>
@@ -9328,7 +9328,7 @@
         <v>315780</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C284" s="6">
         <v>44857</v>
@@ -9340,13 +9340,13 @@
         <v>2022</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I284" s="7">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>311860</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C285" s="6">
         <v>44859</v>
@@ -9369,13 +9369,13 @@
         <v>2022</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I285" s="7">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>313510</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C286" s="6">
         <v>44860</v>
@@ -9398,13 +9398,13 @@
         <v>2022</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I286" s="7">
         <v>1</v>
@@ -9415,7 +9415,7 @@
         <v>316990</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C287" s="6">
         <v>44861</v>
@@ -9427,13 +9427,13 @@
         <v>2022</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I287" s="7">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>311000</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C288" s="6">
         <v>44863</v>
@@ -9456,13 +9456,13 @@
         <v>2022</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I288" s="7">
         <v>1</v>
@@ -9473,7 +9473,7 @@
         <v>311000</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C289" s="6">
         <v>44864</v>
@@ -9485,13 +9485,13 @@
         <v>2022</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I289" s="7">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>314300</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C290" s="6">
         <v>44864</v>
@@ -9514,13 +9514,13 @@
         <v>2022</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I290" s="7">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>316555</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C291" s="6">
         <v>44864</v>
@@ -9543,13 +9543,13 @@
         <v>2022</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I291" s="7">
         <v>1</v>
@@ -9560,7 +9560,7 @@
         <v>311800</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C292" s="6">
         <v>44866</v>
@@ -9572,13 +9572,13 @@
         <v>2022</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I292" s="7">
         <v>1</v>
@@ -9589,7 +9589,7 @@
         <v>312430</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C293" s="6">
         <v>44866</v>
@@ -9601,13 +9601,13 @@
         <v>2022</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I293" s="7">
         <v>1</v>
@@ -9618,7 +9618,7 @@
         <v>316890</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C294" s="6">
         <v>44866</v>
@@ -9630,13 +9630,13 @@
         <v>2022</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I294" s="7">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>316370</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C295" s="6">
         <v>44870</v>
@@ -9659,13 +9659,13 @@
         <v>2022</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I295" s="7">
         <v>2</v>
@@ -9676,7 +9676,7 @@
         <v>313950</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C296" s="6">
         <v>44873</v>
@@ -9688,13 +9688,13 @@
         <v>2022</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I296" s="7">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>310730</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C297" s="6">
         <v>44873</v>
@@ -9717,13 +9717,13 @@
         <v>2022</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I297" s="7">
         <v>1</v>
@@ -9734,7 +9734,7 @@
         <v>315460</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C298" s="6">
         <v>44874</v>
@@ -9746,13 +9746,13 @@
         <v>2022</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I298" s="7">
         <v>1</v>
@@ -9763,7 +9763,7 @@
         <v>312800</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C299" s="6">
         <v>44874</v>
@@ -9775,13 +9775,13 @@
         <v>2022</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I299" s="7">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>310855</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C300" s="6">
         <v>44875</v>
@@ -9804,13 +9804,13 @@
         <v>2022</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I300" s="7">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>311430</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C301" s="6">
         <v>44877</v>
@@ -9833,13 +9833,13 @@
         <v>2022</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I301" s="7">
         <v>1</v>
@@ -9850,7 +9850,7 @@
         <v>314800</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C302" s="6">
         <v>44877</v>
@@ -9862,13 +9862,13 @@
         <v>2022</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I302" s="7">
         <v>1</v>
@@ -9879,7 +9879,7 @@
         <v>310620</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C303" s="6">
         <v>44878</v>
@@ -9891,13 +9891,13 @@
         <v>2022</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I303" s="7">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>314435</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C304" s="6">
         <v>44878</v>
@@ -9920,13 +9920,13 @@
         <v>2022</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I304" s="7">
         <v>1</v>
@@ -9937,7 +9937,7 @@
         <v>316553</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C305" s="6">
         <v>44878</v>
@@ -9949,13 +9949,13 @@
         <v>2022</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I305" s="7">
         <v>1</v>
@@ -9966,7 +9966,7 @@
         <v>310920</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C306" s="6">
         <v>44879</v>
@@ -9978,13 +9978,13 @@
         <v>2022</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I306" s="7">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>315380</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C307" s="6">
         <v>44879</v>
@@ -10007,13 +10007,13 @@
         <v>2022</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I307" s="7">
         <v>1</v>
@@ -10024,7 +10024,7 @@
         <v>315250</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C308" s="6">
         <v>44879</v>
@@ -10036,13 +10036,13 @@
         <v>2022</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I308" s="7">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         <v>315895</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C309" s="6">
         <v>44880</v>
@@ -10065,13 +10065,13 @@
         <v>2022</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I309" s="7">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>312710</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C310" s="6">
         <v>44880</v>
@@ -10094,13 +10094,13 @@
         <v>2022</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I310" s="7">
         <v>1</v>
@@ -10111,7 +10111,7 @@
         <v>315727</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C311" s="6">
         <v>44881</v>
@@ -10123,13 +10123,13 @@
         <v>2022</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I311" s="7">
         <v>1</v>
@@ -10140,7 +10140,7 @@
         <v>317075</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C312" s="6">
         <v>44881</v>
@@ -10152,13 +10152,13 @@
         <v>2022</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I312" s="7">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>314800</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C313" s="6">
         <v>44882</v>
@@ -10181,13 +10181,13 @@
         <v>2022</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I313" s="7">
         <v>1</v>
@@ -10198,7 +10198,7 @@
         <v>316470</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C314" s="6">
         <v>44883</v>
@@ -10210,13 +10210,13 @@
         <v>2022</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I314" s="7">
         <v>1</v>
@@ -10227,7 +10227,7 @@
         <v>313720</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C315" s="6">
         <v>44884</v>
@@ -10239,13 +10239,13 @@
         <v>2022</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I315" s="7">
         <v>1</v>
@@ -10256,7 +10256,7 @@
         <v>312410</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C316" s="6">
         <v>44885</v>
@@ -10268,13 +10268,13 @@
         <v>2022</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I316" s="7">
         <v>1</v>
@@ -10285,7 +10285,7 @@
         <v>313460</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C317" s="6">
         <v>44889</v>
@@ -10297,13 +10297,13 @@
         <v>2022</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I317" s="7">
         <v>1</v>
@@ -10314,7 +10314,7 @@
         <v>316210</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C318" s="6">
         <v>44891</v>
@@ -10326,13 +10326,13 @@
         <v>2022</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I318" s="7">
         <v>1</v>
@@ -10343,7 +10343,7 @@
         <v>313670</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C319" s="6">
         <v>44893</v>
@@ -10355,13 +10355,13 @@
         <v>2022</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I319" s="7">
         <v>2</v>
@@ -10372,7 +10372,7 @@
         <v>311420</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C320" s="6">
         <v>44893</v>
@@ -10384,13 +10384,13 @@
         <v>2022</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I320" s="7">
         <v>1</v>
@@ -10401,7 +10401,7 @@
         <v>317020</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C321" s="6">
         <v>44895</v>
@@ -10413,13 +10413,13 @@
         <v>2022</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I321" s="7">
         <v>1</v>
@@ -10430,7 +10430,7 @@
         <v>310940</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C322" s="6">
         <v>44897</v>
@@ -10442,13 +10442,13 @@
         <v>2022</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I322" s="7">
         <v>1</v>
@@ -10459,7 +10459,7 @@
         <v>314330</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C323" s="6">
         <v>44897</v>
@@ -10471,13 +10471,13 @@
         <v>2022</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I323" s="7">
         <v>1</v>
@@ -10488,7 +10488,7 @@
         <v>311340</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C324" s="6">
         <v>44898</v>
@@ -10500,13 +10500,13 @@
         <v>2022</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H324" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I324" s="7">
         <v>1</v>
@@ -10517,7 +10517,7 @@
         <v>311530</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C325" s="6">
         <v>44898</v>
@@ -10529,13 +10529,13 @@
         <v>2022</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I325" s="7">
         <v>1</v>
@@ -10546,7 +10546,7 @@
         <v>314280</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C326" s="6">
         <v>44898</v>
@@ -10558,13 +10558,13 @@
         <v>2022</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I326" s="7">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>313760</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C327" s="6">
         <v>44898</v>
@@ -10587,13 +10587,13 @@
         <v>2022</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I327" s="7">
         <v>1</v>
@@ -10604,7 +10604,7 @@
         <v>311100</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C328" s="6">
         <v>44900</v>
@@ -10616,13 +10616,13 @@
         <v>2022</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I328" s="7">
         <v>1</v>
@@ -10633,7 +10633,7 @@
         <v>313660</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C329" s="6">
         <v>44901</v>
@@ -10645,13 +10645,13 @@
         <v>2022</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I329" s="7">
         <v>1</v>
@@ -10662,7 +10662,7 @@
         <v>310855</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C330" s="6">
         <v>44902</v>
@@ -10674,13 +10674,13 @@
         <v>2022</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I330" s="7">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>315960</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C331" s="6">
         <v>44902</v>
@@ -10703,13 +10703,13 @@
         <v>2022</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I331" s="7">
         <v>1</v>
@@ -10720,7 +10720,7 @@
         <v>312410</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C332" s="6">
         <v>44903</v>
@@ -10732,13 +10732,13 @@
         <v>2022</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I332" s="7">
         <v>1</v>
@@ -10749,7 +10749,7 @@
         <v>310620</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C333" s="6">
         <v>44905</v>
@@ -10761,13 +10761,13 @@
         <v>2022</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I333" s="7">
         <v>1</v>
@@ -10778,7 +10778,7 @@
         <v>314590</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C334" s="6">
         <v>44905</v>
@@ -10790,13 +10790,13 @@
         <v>2022</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I334" s="7">
         <v>1</v>
@@ -10807,7 +10807,7 @@
         <v>314710</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C335" s="6">
         <v>44908</v>
@@ -10819,13 +10819,13 @@
         <v>2022</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I335" s="7">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>317000</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C336" s="6">
         <v>44908</v>
@@ -10848,13 +10848,13 @@
         <v>2022</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I336" s="7">
         <v>1</v>
@@ -10865,7 +10865,7 @@
         <v>313820</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C337" s="6">
         <v>44912</v>
@@ -10877,13 +10877,13 @@
         <v>2022</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I337" s="7">
         <v>1</v>
@@ -10894,7 +10894,7 @@
         <v>316470</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C338" s="6">
         <v>44912</v>
@@ -10906,13 +10906,13 @@
         <v>2022</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I338" s="7">
         <v>1</v>
@@ -10923,7 +10923,7 @@
         <v>313510</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C339" s="6">
         <v>44913</v>
@@ -10935,13 +10935,13 @@
         <v>2022</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I339" s="7">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>316180</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C340" s="6">
         <v>44917</v>
@@ -10964,13 +10964,13 @@
         <v>2022</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I340" s="7">
         <v>1</v>
@@ -10981,7 +10981,7 @@
         <v>313240</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C341" s="6">
         <v>44918</v>
@@ -10993,13 +10993,13 @@
         <v>2022</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I341" s="7">
         <v>1</v>
@@ -11010,7 +11010,7 @@
         <v>317090</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C342" s="6">
         <v>44918</v>
@@ -11022,13 +11022,13 @@
         <v>2022</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I342" s="7">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>316990</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C343" s="6">
         <v>44919</v>
@@ -11051,13 +11051,13 @@
         <v>2022</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H343" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I343" s="7">
         <v>1</v>
@@ -11068,7 +11068,7 @@
         <v>310620</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C344" s="6">
         <v>44919</v>
@@ -11080,13 +11080,13 @@
         <v>2022</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I344" s="7">
         <v>1</v>
@@ -11097,7 +11097,7 @@
         <v>311730</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C345" s="6">
         <v>44920</v>
@@ -11109,13 +11109,13 @@
         <v>2022</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I345" s="7">
         <v>1</v>
@@ -11126,7 +11126,7 @@
         <v>317020</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C346" s="6">
         <v>44920</v>
@@ -11138,13 +11138,13 @@
         <v>2022</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H346" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I346" s="7">
         <v>1</v>
@@ -11155,7 +11155,7 @@
         <v>312750</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C347" s="6">
         <v>44920</v>
@@ -11167,13 +11167,13 @@
         <v>2022</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I347" s="7">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>314310</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C348" s="6">
         <v>44920</v>
@@ -11196,13 +11196,13 @@
         <v>2022</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H348" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I348" s="7">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>316410</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C349" s="6">
         <v>44921</v>
@@ -11225,13 +11225,13 @@
         <v>2022</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I349" s="7">
         <v>1</v>
@@ -11242,7 +11242,7 @@
         <v>313440</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C350" s="6">
         <v>44922</v>
@@ -11254,13 +11254,13 @@
         <v>2022</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I350" s="7">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>317000</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C351" s="6">
         <v>44924</v>
@@ -11283,13 +11283,13 @@
         <v>2022</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I351" s="7">
         <v>1</v>
@@ -11300,7 +11300,7 @@
         <v>314330</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C352" s="6">
         <v>44926</v>
@@ -11312,13 +11312,13 @@
         <v>2022</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H352" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I352" s="7">
         <v>1</v>
